--- a/DECODE.xlsx
+++ b/DECODE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\Documents\ADSB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EBB765-AD76-401A-83C6-3CBCE36791ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D44CB19-42EC-4C09-95ED-44DE4B0F7151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{92B1C345-E41F-48C0-9279-9F59BC6D82A7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
   <si>
     <t>BIT</t>
   </si>
@@ -174,11 +174,71 @@
   <si>
     <t>ACCOUNTING FOR MSG ONLY</t>
   </si>
+  <si>
+    <t>ALT</t>
+  </si>
+  <si>
+    <t>CPR FORMAT</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>LONGITUDE</t>
+  </si>
+  <si>
+    <t>dLat</t>
+  </si>
+  <si>
+    <t>latcpr</t>
+  </si>
+  <si>
+    <t>j1</t>
+  </si>
+  <si>
+    <t>latref</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>floor[</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>lat=</t>
+  </si>
+  <si>
+    <t>j      =  6.0</t>
+  </si>
+  <si>
+    <t>dLat   =  6.0</t>
+  </si>
+  <si>
+    <t>Ncpr =  0b10111011011010010</t>
+  </si>
+  <si>
+    <t>LATcpr =  0.7320709228515625</t>
+  </si>
+  <si>
+    <t>LAT    =  40.392425537109375</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,18 +422,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -385,11 +455,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -408,48 +476,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2160,486 +2214,486 @@
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="4">
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11">
         <v>2</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="4">
+      <c r="F4" s="12"/>
+      <c r="G4" s="11">
         <v>3</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="4">
+      <c r="H4" s="12"/>
+      <c r="I4" s="11">
         <v>4</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="4">
+      <c r="J4" s="12"/>
+      <c r="K4" s="11">
         <v>5</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="4">
+      <c r="L4" s="12"/>
+      <c r="M4" s="11">
         <v>6</v>
       </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="4">
+      <c r="N4" s="12"/>
+      <c r="O4" s="11">
         <v>7</v>
       </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="4">
+      <c r="P4" s="12"/>
+      <c r="Q4" s="11">
         <v>8</v>
       </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="4">
+      <c r="R4" s="12"/>
+      <c r="S4" s="11">
         <v>9</v>
       </c>
-      <c r="T4" s="6"/>
-      <c r="U4" s="4">
+      <c r="T4" s="12"/>
+      <c r="U4" s="11">
         <v>10</v>
       </c>
-      <c r="V4" s="6"/>
-      <c r="W4" s="4">
+      <c r="V4" s="12"/>
+      <c r="W4" s="11">
         <v>11</v>
       </c>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="4">
+      <c r="X4" s="12"/>
+      <c r="Y4" s="11">
         <v>12</v>
       </c>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="4">
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="11">
         <v>13</v>
       </c>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="4">
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="11">
         <v>14</v>
       </c>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="4">
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="11">
         <v>15</v>
       </c>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="4">
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="11">
         <v>16</v>
       </c>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="4">
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="11">
         <v>17</v>
       </c>
-      <c r="AJ4" s="6"/>
-      <c r="AK4" s="4">
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="11">
         <v>18</v>
       </c>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="4">
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="11">
         <v>19</v>
       </c>
-      <c r="AN4" s="6"/>
-      <c r="AO4" s="4">
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="11">
         <v>20</v>
       </c>
-      <c r="AP4" s="6"/>
-      <c r="AQ4" s="4">
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="11">
         <v>21</v>
       </c>
-      <c r="AR4" s="6"/>
-      <c r="AS4" s="4">
+      <c r="AR4" s="12"/>
+      <c r="AS4" s="11">
         <v>22</v>
       </c>
-      <c r="AT4" s="6"/>
-      <c r="AU4" s="4">
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="11">
         <v>23</v>
       </c>
-      <c r="AV4" s="6"/>
-      <c r="AW4" s="4">
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="11">
         <v>24</v>
       </c>
-      <c r="AX4" s="6"/>
-      <c r="AY4" s="4">
+      <c r="AX4" s="12"/>
+      <c r="AY4" s="11">
         <v>25</v>
       </c>
-      <c r="AZ4" s="6"/>
-      <c r="BA4" s="4">
+      <c r="AZ4" s="12"/>
+      <c r="BA4" s="11">
         <v>26</v>
       </c>
-      <c r="BB4" s="6"/>
-      <c r="BC4" s="4">
+      <c r="BB4" s="12"/>
+      <c r="BC4" s="11">
         <v>27</v>
       </c>
-      <c r="BD4" s="6"/>
-      <c r="BE4" s="4">
+      <c r="BD4" s="12"/>
+      <c r="BE4" s="11">
         <v>28</v>
       </c>
-      <c r="BF4" s="6"/>
-      <c r="BG4" s="4">
+      <c r="BF4" s="12"/>
+      <c r="BG4" s="11">
         <v>29</v>
       </c>
-      <c r="BH4" s="6"/>
-      <c r="BI4" s="4">
+      <c r="BH4" s="12"/>
+      <c r="BI4" s="11">
         <v>30</v>
       </c>
-      <c r="BJ4" s="6"/>
-      <c r="BK4" s="4">
+      <c r="BJ4" s="12"/>
+      <c r="BK4" s="11">
         <v>31</v>
       </c>
-      <c r="BL4" s="6"/>
-      <c r="BM4" s="4">
+      <c r="BL4" s="12"/>
+      <c r="BM4" s="11">
         <v>32</v>
       </c>
-      <c r="BN4" s="6"/>
-      <c r="BO4" s="4">
+      <c r="BN4" s="12"/>
+      <c r="BO4" s="11">
         <v>33</v>
       </c>
-      <c r="BP4" s="6"/>
-      <c r="BQ4" s="4">
+      <c r="BP4" s="12"/>
+      <c r="BQ4" s="11">
         <v>34</v>
       </c>
-      <c r="BR4" s="6"/>
-      <c r="BS4" s="4">
+      <c r="BR4" s="12"/>
+      <c r="BS4" s="11">
         <v>35</v>
       </c>
-      <c r="BT4" s="6"/>
-      <c r="BU4" s="4">
+      <c r="BT4" s="12"/>
+      <c r="BU4" s="11">
         <v>36</v>
       </c>
-      <c r="BV4" s="6"/>
-      <c r="BW4" s="4">
+      <c r="BV4" s="12"/>
+      <c r="BW4" s="11">
         <v>37</v>
       </c>
-      <c r="BX4" s="6"/>
-      <c r="BY4" s="4">
+      <c r="BX4" s="12"/>
+      <c r="BY4" s="11">
         <v>38</v>
       </c>
-      <c r="BZ4" s="6"/>
-      <c r="CA4" s="4">
+      <c r="BZ4" s="12"/>
+      <c r="CA4" s="11">
         <v>39</v>
       </c>
-      <c r="CB4" s="6"/>
-      <c r="CC4" s="4">
+      <c r="CB4" s="12"/>
+      <c r="CC4" s="11">
         <v>40</v>
       </c>
-      <c r="CD4" s="6"/>
-      <c r="CE4" s="4">
+      <c r="CD4" s="12"/>
+      <c r="CE4" s="11">
         <v>41</v>
       </c>
-      <c r="CF4" s="6"/>
-      <c r="CG4" s="4">
+      <c r="CF4" s="12"/>
+      <c r="CG4" s="11">
         <v>42</v>
       </c>
-      <c r="CH4" s="6"/>
-      <c r="CI4" s="4">
+      <c r="CH4" s="12"/>
+      <c r="CI4" s="11">
         <v>43</v>
       </c>
-      <c r="CJ4" s="6"/>
-      <c r="CK4" s="4">
+      <c r="CJ4" s="12"/>
+      <c r="CK4" s="11">
         <v>44</v>
       </c>
-      <c r="CL4" s="6"/>
-      <c r="CM4" s="4">
+      <c r="CL4" s="12"/>
+      <c r="CM4" s="11">
         <v>45</v>
       </c>
-      <c r="CN4" s="6"/>
-      <c r="CO4" s="4">
+      <c r="CN4" s="12"/>
+      <c r="CO4" s="11">
         <v>46</v>
       </c>
-      <c r="CP4" s="6"/>
-      <c r="CQ4" s="4">
+      <c r="CP4" s="12"/>
+      <c r="CQ4" s="11">
         <v>47</v>
       </c>
-      <c r="CR4" s="6"/>
-      <c r="CS4" s="4">
+      <c r="CR4" s="12"/>
+      <c r="CS4" s="11">
         <v>48</v>
       </c>
-      <c r="CT4" s="6"/>
-      <c r="CU4" s="4">
+      <c r="CT4" s="12"/>
+      <c r="CU4" s="11">
         <v>49</v>
       </c>
-      <c r="CV4" s="6"/>
-      <c r="CW4" s="4">
+      <c r="CV4" s="12"/>
+      <c r="CW4" s="11">
         <v>50</v>
       </c>
-      <c r="CX4" s="6"/>
-      <c r="CY4" s="4">
+      <c r="CX4" s="12"/>
+      <c r="CY4" s="11">
         <v>51</v>
       </c>
-      <c r="CZ4" s="6"/>
-      <c r="DA4" s="4">
+      <c r="CZ4" s="12"/>
+      <c r="DA4" s="11">
         <v>52</v>
       </c>
-      <c r="DB4" s="6"/>
-      <c r="DC4" s="4">
+      <c r="DB4" s="12"/>
+      <c r="DC4" s="11">
         <v>53</v>
       </c>
-      <c r="DD4" s="6"/>
-      <c r="DE4" s="4">
+      <c r="DD4" s="12"/>
+      <c r="DE4" s="11">
         <v>54</v>
       </c>
-      <c r="DF4" s="6"/>
-      <c r="DG4" s="4">
+      <c r="DF4" s="12"/>
+      <c r="DG4" s="11">
         <v>55</v>
       </c>
-      <c r="DH4" s="6"/>
-      <c r="DI4" s="4">
+      <c r="DH4" s="12"/>
+      <c r="DI4" s="11">
         <v>56</v>
       </c>
-      <c r="DJ4" s="6"/>
-      <c r="DK4" s="4">
+      <c r="DJ4" s="12"/>
+      <c r="DK4" s="11">
         <v>57</v>
       </c>
-      <c r="DL4" s="6"/>
-      <c r="DM4" s="4">
+      <c r="DL4" s="12"/>
+      <c r="DM4" s="11">
         <v>58</v>
       </c>
-      <c r="DN4" s="6"/>
-      <c r="DO4" s="4">
+      <c r="DN4" s="12"/>
+      <c r="DO4" s="11">
         <v>59</v>
       </c>
-      <c r="DP4" s="6"/>
-      <c r="DQ4" s="4">
+      <c r="DP4" s="12"/>
+      <c r="DQ4" s="11">
         <v>60</v>
       </c>
-      <c r="DR4" s="6"/>
-      <c r="DS4" s="10">
+      <c r="DR4" s="12"/>
+      <c r="DS4" s="13">
         <v>61</v>
       </c>
-      <c r="DT4" s="10"/>
-      <c r="DU4" s="10">
+      <c r="DT4" s="13"/>
+      <c r="DU4" s="13">
         <v>62</v>
       </c>
-      <c r="DV4" s="10"/>
-      <c r="DW4" s="10">
+      <c r="DV4" s="13"/>
+      <c r="DW4" s="13">
         <v>63</v>
       </c>
-      <c r="DX4" s="10"/>
-      <c r="DY4" s="10">
+      <c r="DX4" s="13"/>
+      <c r="DY4" s="13">
         <v>64</v>
       </c>
-      <c r="DZ4" s="10"/>
-      <c r="EA4" s="10">
+      <c r="DZ4" s="13"/>
+      <c r="EA4" s="13">
         <v>65</v>
       </c>
-      <c r="EB4" s="10"/>
-      <c r="EC4" s="10">
+      <c r="EB4" s="13"/>
+      <c r="EC4" s="13">
         <v>66</v>
       </c>
-      <c r="ED4" s="10"/>
-      <c r="EE4" s="10">
+      <c r="ED4" s="13"/>
+      <c r="EE4" s="13">
         <v>67</v>
       </c>
-      <c r="EF4" s="10"/>
-      <c r="EG4" s="10">
+      <c r="EF4" s="13"/>
+      <c r="EG4" s="13">
         <v>68</v>
       </c>
-      <c r="EH4" s="10"/>
-      <c r="EI4" s="10">
+      <c r="EH4" s="13"/>
+      <c r="EI4" s="13">
         <v>69</v>
       </c>
-      <c r="EJ4" s="10"/>
-      <c r="EK4" s="10">
+      <c r="EJ4" s="13"/>
+      <c r="EK4" s="13">
         <v>70</v>
       </c>
-      <c r="EL4" s="10"/>
-      <c r="EM4" s="10">
+      <c r="EL4" s="13"/>
+      <c r="EM4" s="13">
         <v>71</v>
       </c>
-      <c r="EN4" s="10"/>
-      <c r="EO4" s="10">
+      <c r="EN4" s="13"/>
+      <c r="EO4" s="13">
         <v>72</v>
       </c>
-      <c r="EP4" s="10"/>
-      <c r="EQ4" s="10">
+      <c r="EP4" s="13"/>
+      <c r="EQ4" s="13">
         <v>73</v>
       </c>
-      <c r="ER4" s="10"/>
-      <c r="ES4" s="10">
+      <c r="ER4" s="13"/>
+      <c r="ES4" s="13">
         <v>74</v>
       </c>
-      <c r="ET4" s="10"/>
-      <c r="EU4" s="10">
+      <c r="ET4" s="13"/>
+      <c r="EU4" s="13">
         <v>75</v>
       </c>
-      <c r="EV4" s="10"/>
-      <c r="EW4" s="10">
+      <c r="EV4" s="13"/>
+      <c r="EW4" s="13">
         <v>76</v>
       </c>
-      <c r="EX4" s="10"/>
-      <c r="EY4" s="10">
+      <c r="EX4" s="13"/>
+      <c r="EY4" s="13">
         <v>77</v>
       </c>
-      <c r="EZ4" s="10"/>
-      <c r="FA4" s="10">
+      <c r="EZ4" s="13"/>
+      <c r="FA4" s="13">
         <v>78</v>
       </c>
-      <c r="FB4" s="10"/>
-      <c r="FC4" s="10">
+      <c r="FB4" s="13"/>
+      <c r="FC4" s="13">
         <v>79</v>
       </c>
-      <c r="FD4" s="10"/>
-      <c r="FE4" s="10">
+      <c r="FD4" s="13"/>
+      <c r="FE4" s="13">
         <v>80</v>
       </c>
-      <c r="FF4" s="10"/>
-      <c r="FG4" s="10">
+      <c r="FF4" s="13"/>
+      <c r="FG4" s="13">
         <v>81</v>
       </c>
-      <c r="FH4" s="10"/>
-      <c r="FI4" s="10">
+      <c r="FH4" s="13"/>
+      <c r="FI4" s="13">
         <v>82</v>
       </c>
-      <c r="FJ4" s="10"/>
-      <c r="FK4" s="10">
+      <c r="FJ4" s="13"/>
+      <c r="FK4" s="13">
         <v>83</v>
       </c>
-      <c r="FL4" s="10"/>
-      <c r="FM4" s="10">
+      <c r="FL4" s="13"/>
+      <c r="FM4" s="13">
         <v>84</v>
       </c>
-      <c r="FN4" s="10"/>
-      <c r="FO4" s="10">
+      <c r="FN4" s="13"/>
+      <c r="FO4" s="13">
         <v>85</v>
       </c>
-      <c r="FP4" s="10"/>
-      <c r="FQ4" s="10">
+      <c r="FP4" s="13"/>
+      <c r="FQ4" s="13">
         <v>86</v>
       </c>
-      <c r="FR4" s="10"/>
-      <c r="FS4" s="10">
+      <c r="FR4" s="13"/>
+      <c r="FS4" s="13">
         <v>87</v>
       </c>
-      <c r="FT4" s="10"/>
-      <c r="FU4" s="10">
+      <c r="FT4" s="13"/>
+      <c r="FU4" s="13">
         <v>88</v>
       </c>
-      <c r="FV4" s="10"/>
-      <c r="FW4" s="10">
+      <c r="FV4" s="13"/>
+      <c r="FW4" s="13">
         <v>89</v>
       </c>
-      <c r="FX4" s="10"/>
-      <c r="FY4" s="10">
+      <c r="FX4" s="13"/>
+      <c r="FY4" s="13">
         <v>90</v>
       </c>
-      <c r="FZ4" s="10"/>
-      <c r="GA4" s="10">
+      <c r="FZ4" s="13"/>
+      <c r="GA4" s="13">
         <v>91</v>
       </c>
-      <c r="GB4" s="10"/>
-      <c r="GC4" s="10">
+      <c r="GB4" s="13"/>
+      <c r="GC4" s="13">
         <v>92</v>
       </c>
-      <c r="GD4" s="10"/>
-      <c r="GE4" s="10">
+      <c r="GD4" s="13"/>
+      <c r="GE4" s="13">
         <v>93</v>
       </c>
-      <c r="GF4" s="10"/>
-      <c r="GG4" s="10">
+      <c r="GF4" s="13"/>
+      <c r="GG4" s="13">
         <v>94</v>
       </c>
-      <c r="GH4" s="10"/>
-      <c r="GI4" s="10">
+      <c r="GH4" s="13"/>
+      <c r="GI4" s="13">
         <v>95</v>
       </c>
-      <c r="GJ4" s="10"/>
-      <c r="GK4" s="10">
+      <c r="GJ4" s="13"/>
+      <c r="GK4" s="13">
         <v>96</v>
       </c>
-      <c r="GL4" s="10"/>
-      <c r="GM4" s="10">
+      <c r="GL4" s="13"/>
+      <c r="GM4" s="13">
         <v>97</v>
       </c>
-      <c r="GN4" s="10"/>
-      <c r="GO4" s="10">
+      <c r="GN4" s="13"/>
+      <c r="GO4" s="13">
         <v>98</v>
       </c>
-      <c r="GP4" s="10"/>
-      <c r="GQ4" s="10">
+      <c r="GP4" s="13"/>
+      <c r="GQ4" s="13">
         <v>99</v>
       </c>
-      <c r="GR4" s="10"/>
-      <c r="GS4" s="10">
+      <c r="GR4" s="13"/>
+      <c r="GS4" s="13">
         <v>100</v>
       </c>
-      <c r="GT4" s="10"/>
-      <c r="GU4" s="10">
+      <c r="GT4" s="13"/>
+      <c r="GU4" s="13">
         <v>101</v>
       </c>
-      <c r="GV4" s="10"/>
-      <c r="GW4" s="10">
+      <c r="GV4" s="13"/>
+      <c r="GW4" s="13">
         <v>102</v>
       </c>
-      <c r="GX4" s="10"/>
-      <c r="GY4" s="10">
+      <c r="GX4" s="13"/>
+      <c r="GY4" s="13">
         <v>103</v>
       </c>
-      <c r="GZ4" s="10"/>
-      <c r="HA4" s="10">
+      <c r="GZ4" s="13"/>
+      <c r="HA4" s="13">
         <v>104</v>
       </c>
-      <c r="HB4" s="10"/>
-      <c r="HC4" s="10">
+      <c r="HB4" s="13"/>
+      <c r="HC4" s="13">
         <v>105</v>
       </c>
-      <c r="HD4" s="10"/>
-      <c r="HE4" s="10">
+      <c r="HD4" s="13"/>
+      <c r="HE4" s="13">
         <v>106</v>
       </c>
-      <c r="HF4" s="10"/>
-      <c r="HG4" s="10">
+      <c r="HF4" s="13"/>
+      <c r="HG4" s="13">
         <v>107</v>
       </c>
-      <c r="HH4" s="10"/>
-      <c r="HI4" s="10">
+      <c r="HH4" s="13"/>
+      <c r="HI4" s="13">
         <v>108</v>
       </c>
-      <c r="HJ4" s="10"/>
-      <c r="HK4" s="10">
+      <c r="HJ4" s="13"/>
+      <c r="HK4" s="13">
         <v>109</v>
       </c>
-      <c r="HL4" s="10"/>
-      <c r="HM4" s="10">
+      <c r="HL4" s="13"/>
+      <c r="HM4" s="13">
         <v>110</v>
       </c>
-      <c r="HN4" s="10"/>
-      <c r="HO4" s="10">
+      <c r="HN4" s="13"/>
+      <c r="HO4" s="13">
         <v>111</v>
       </c>
-      <c r="HP4" s="10"/>
-      <c r="HQ4" s="10">
+      <c r="HP4" s="13"/>
+      <c r="HQ4" s="13">
         <v>112</v>
       </c>
-      <c r="HR4" s="10"/>
-      <c r="HS4" s="10">
+      <c r="HR4" s="13"/>
+      <c r="HS4" s="13">
         <v>113</v>
       </c>
-      <c r="HT4" s="10"/>
-      <c r="HU4" s="10">
+      <c r="HT4" s="13"/>
+      <c r="HU4" s="13">
         <v>114</v>
       </c>
-      <c r="HV4" s="10"/>
-      <c r="HW4" s="10">
+      <c r="HV4" s="13"/>
+      <c r="HW4" s="13">
         <v>115</v>
       </c>
-      <c r="HX4" s="10"/>
-      <c r="HY4" s="10">
+      <c r="HX4" s="13"/>
+      <c r="HY4" s="13">
         <v>116</v>
       </c>
-      <c r="HZ4" s="10"/>
-      <c r="IA4" s="10">
+      <c r="HZ4" s="13"/>
+      <c r="IA4" s="13">
         <v>117</v>
       </c>
-      <c r="IB4" s="10"/>
-      <c r="IC4" s="10">
+      <c r="IB4" s="13"/>
+      <c r="IC4" s="13">
         <v>118</v>
       </c>
-      <c r="ID4" s="10"/>
-      <c r="IE4" s="10">
+      <c r="ID4" s="13"/>
+      <c r="IE4" s="13">
         <v>119</v>
       </c>
-      <c r="IF4" s="10"/>
-      <c r="IG4" s="10">
+      <c r="IF4" s="13"/>
+      <c r="IG4" s="13">
         <v>120</v>
       </c>
-      <c r="IH4" s="10"/>
+      <c r="IH4" s="13"/>
       <c r="II4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2663,606 +2717,606 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="13">
         <f>IF(AND(C3=1,D3=0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13">
         <f t="shared" ref="E5" si="0">IF(AND(E3=1,F3=0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13">
         <f t="shared" ref="G5" si="1">IF(AND(G3=1,H3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10">
+      <c r="H5" s="13"/>
+      <c r="I5" s="13">
         <f t="shared" ref="I5" si="2">IF(AND(I3=1,J3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10">
+      <c r="J5" s="13"/>
+      <c r="K5" s="13">
         <f t="shared" ref="K5" si="3">IF(AND(K3=1,L3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10">
+      <c r="L5" s="13"/>
+      <c r="M5" s="13">
         <f t="shared" ref="M5" si="4">IF(AND(M3=1,N3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10">
+      <c r="N5" s="13"/>
+      <c r="O5" s="13">
         <f t="shared" ref="O5" si="5">IF(AND(O3=1,P3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10">
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13">
         <f t="shared" ref="Q5" si="6">IF(AND(Q3=1,R3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10">
+      <c r="R5" s="13"/>
+      <c r="S5" s="13">
         <f t="shared" ref="S5" si="7">IF(AND(S3=1,T3=0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10">
+      <c r="T5" s="13"/>
+      <c r="U5" s="13">
         <f t="shared" ref="U5" si="8">IF(AND(U3=1,V3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10">
+      <c r="V5" s="13"/>
+      <c r="W5" s="13">
         <f t="shared" ref="W5" si="9">IF(AND(W3=1,X3=0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10">
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13">
         <f t="shared" ref="Y5" si="10">IF(AND(Y3=1,Z3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10">
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13">
         <f t="shared" ref="AA5" si="11">IF(AND(AA3=1,AB3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10">
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13">
         <f t="shared" ref="AC5" si="12">IF(AND(AC3=1,AD3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10">
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13">
         <f t="shared" ref="AE5" si="13">IF(AND(AE3=1,AF3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10">
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13">
         <f t="shared" ref="AG5" si="14">IF(AND(AG3=1,AH3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10">
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13">
         <f t="shared" ref="AI5" si="15">IF(AND(AI3=1,AJ3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10">
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13">
         <f t="shared" ref="AK5" si="16">IF(AND(AK3=1,AL3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="10">
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13">
         <f t="shared" ref="AM5" si="17">IF(AND(AM3=1,AN3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="10">
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13">
         <f t="shared" ref="AO5" si="18">IF(AND(AO3=1,AP3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AP5" s="10"/>
-      <c r="AQ5" s="10">
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13">
         <f t="shared" ref="AQ5" si="19">IF(AND(AQ3=1,AR3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AR5" s="10"/>
-      <c r="AS5" s="10">
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13">
         <f t="shared" ref="AS5" si="20">IF(AND(AS3=1,AT3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AT5" s="10"/>
-      <c r="AU5" s="10">
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13">
         <f t="shared" ref="AU5" si="21">IF(AND(AU3=1,AV3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AV5" s="10"/>
-      <c r="AW5" s="10">
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="13">
         <f t="shared" ref="AW5" si="22">IF(AND(AW3=1,AX3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AX5" s="10"/>
-      <c r="AY5" s="10">
+      <c r="AX5" s="13"/>
+      <c r="AY5" s="13">
         <f t="shared" ref="AY5" si="23">IF(AND(AY3=1,AZ3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AZ5" s="10"/>
-      <c r="BA5" s="10">
+      <c r="AZ5" s="13"/>
+      <c r="BA5" s="13">
         <f t="shared" ref="BA5" si="24">IF(AND(BA3=1,BB3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="BB5" s="10"/>
-      <c r="BC5" s="10">
+      <c r="BB5" s="13"/>
+      <c r="BC5" s="13">
         <f t="shared" ref="BC5" si="25">IF(AND(BC3=1,BD3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="BD5" s="10"/>
-      <c r="BE5" s="10">
+      <c r="BD5" s="13"/>
+      <c r="BE5" s="13">
         <f t="shared" ref="BE5" si="26">IF(AND(BE3=1,BF3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="BF5" s="10"/>
-      <c r="BG5" s="10">
+      <c r="BF5" s="13"/>
+      <c r="BG5" s="13">
         <f t="shared" ref="BG5" si="27">IF(AND(BG3=1,BH3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="BH5" s="10"/>
-      <c r="BI5" s="10">
+      <c r="BH5" s="13"/>
+      <c r="BI5" s="13">
         <f t="shared" ref="BI5" si="28">IF(AND(BI3=1,BJ3=0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="BJ5" s="10"/>
-      <c r="BK5" s="10">
+      <c r="BJ5" s="13"/>
+      <c r="BK5" s="13">
         <f t="shared" ref="BK5" si="29">IF(AND(BK3=1,BL3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="BL5" s="10"/>
-      <c r="BM5" s="10">
+      <c r="BL5" s="13"/>
+      <c r="BM5" s="13">
         <f t="shared" ref="BM5" si="30">IF(AND(BM3=1,BN3=0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="BN5" s="10"/>
-      <c r="BO5" s="10">
+      <c r="BN5" s="13"/>
+      <c r="BO5" s="13">
         <f t="shared" ref="BO5" si="31">IF(AND(BO3=1,BP3=0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="BP5" s="10"/>
-      <c r="BQ5" s="10">
+      <c r="BP5" s="13"/>
+      <c r="BQ5" s="13">
         <f t="shared" ref="BQ5" si="32">IF(AND(BQ3=1,BR3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="BR5" s="10"/>
-      <c r="BS5" s="10">
+      <c r="BR5" s="13"/>
+      <c r="BS5" s="13">
         <f t="shared" ref="BS5" si="33">IF(AND(BS3=1,BT3=0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="BT5" s="10"/>
-      <c r="BU5" s="10">
+      <c r="BT5" s="13"/>
+      <c r="BU5" s="13">
         <f t="shared" ref="BU5" si="34">IF(AND(BU3=1,BV3=0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="BV5" s="10"/>
-      <c r="BW5" s="10">
+      <c r="BV5" s="13"/>
+      <c r="BW5" s="13">
         <f t="shared" ref="BW5" si="35">IF(AND(BW3=1,BX3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="BX5" s="10"/>
-      <c r="BY5" s="10">
+      <c r="BX5" s="13"/>
+      <c r="BY5" s="13">
         <f t="shared" ref="BY5" si="36">IF(AND(BY3=1,BZ3=0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="BZ5" s="10"/>
-      <c r="CA5" s="10">
+      <c r="BZ5" s="13"/>
+      <c r="CA5" s="13">
         <f t="shared" ref="CA5" si="37">IF(AND(CA3=1,CB3=0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="CB5" s="10"/>
-      <c r="CC5" s="10">
+      <c r="CB5" s="13"/>
+      <c r="CC5" s="13">
         <f t="shared" ref="CC5" si="38">IF(AND(CC3=1,CD3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="CD5" s="10"/>
-      <c r="CE5" s="10">
+      <c r="CD5" s="13"/>
+      <c r="CE5" s="13">
         <f t="shared" ref="CE5" si="39">IF(AND(CE3=1,CF3=0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="CF5" s="10"/>
-      <c r="CG5" s="10">
+      <c r="CF5" s="13"/>
+      <c r="CG5" s="13">
         <f t="shared" ref="CG5" si="40">IF(AND(CG3=1,CH3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="CH5" s="10"/>
-      <c r="CI5" s="10">
+      <c r="CH5" s="13"/>
+      <c r="CI5" s="13">
         <f t="shared" ref="CI5" si="41">IF(AND(CI3=1,CJ3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="CJ5" s="10"/>
-      <c r="CK5" s="10">
+      <c r="CJ5" s="13"/>
+      <c r="CK5" s="13">
         <f t="shared" ref="CK5" si="42">IF(AND(CK3=1,CL3=0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="CL5" s="10"/>
-      <c r="CM5" s="10">
+      <c r="CL5" s="13"/>
+      <c r="CM5" s="13">
         <f t="shared" ref="CM5" si="43">IF(AND(CM3=1,CN3=0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="CN5" s="10"/>
-      <c r="CO5" s="10">
+      <c r="CN5" s="13"/>
+      <c r="CO5" s="13">
         <f t="shared" ref="CO5" si="44">IF(AND(CO3=1,CP3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="CP5" s="10"/>
-      <c r="CQ5" s="10">
+      <c r="CP5" s="13"/>
+      <c r="CQ5" s="13">
         <f t="shared" ref="CQ5" si="45">IF(AND(CQ3=1,CR3=0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="CR5" s="10"/>
-      <c r="CS5" s="10">
+      <c r="CR5" s="13"/>
+      <c r="CS5" s="13">
         <f t="shared" ref="CS5" si="46">IF(AND(CS3=1,CT3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="CT5" s="10"/>
-      <c r="CU5" s="10">
+      <c r="CT5" s="13"/>
+      <c r="CU5" s="13">
         <f t="shared" ref="CU5" si="47">IF(AND(CU3=1,CV3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="CV5" s="10"/>
-      <c r="CW5" s="10">
+      <c r="CV5" s="13"/>
+      <c r="CW5" s="13">
         <f t="shared" ref="CW5" si="48">IF(AND(CW3=1,CX3=0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="CX5" s="10"/>
-      <c r="CY5" s="10">
+      <c r="CX5" s="13"/>
+      <c r="CY5" s="13">
         <f t="shared" ref="CY5" si="49">IF(AND(CY3=1,CZ3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="CZ5" s="10"/>
-      <c r="DA5" s="10">
+      <c r="CZ5" s="13"/>
+      <c r="DA5" s="13">
         <f t="shared" ref="DA5" si="50">IF(AND(DA3=1,DB3=0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="DB5" s="10"/>
-      <c r="DC5" s="10">
+      <c r="DB5" s="13"/>
+      <c r="DC5" s="13">
         <f t="shared" ref="DC5" si="51">IF(AND(DC3=1,DD3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="DD5" s="10"/>
-      <c r="DE5" s="10">
+      <c r="DD5" s="13"/>
+      <c r="DE5" s="13">
         <f t="shared" ref="DE5" si="52">IF(AND(DE3=1,DF3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="DF5" s="10"/>
-      <c r="DG5" s="10">
+      <c r="DF5" s="13"/>
+      <c r="DG5" s="13">
         <f t="shared" ref="DG5" si="53">IF(AND(DG3=1,DH3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="DH5" s="10"/>
-      <c r="DI5" s="10">
+      <c r="DH5" s="13"/>
+      <c r="DI5" s="13">
         <f t="shared" ref="DI5" si="54">IF(AND(DI3=1,DJ3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="DJ5" s="10"/>
-      <c r="DK5" s="10">
+      <c r="DJ5" s="13"/>
+      <c r="DK5" s="13">
         <f t="shared" ref="DK5" si="55">IF(AND(DK3=1,DL3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="DL5" s="10"/>
-      <c r="DM5" s="10">
+      <c r="DL5" s="13"/>
+      <c r="DM5" s="13">
         <f t="shared" ref="DM5" si="56">IF(AND(DM3=1,DN3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="DN5" s="10"/>
-      <c r="DO5" s="10">
+      <c r="DN5" s="13"/>
+      <c r="DO5" s="13">
         <f t="shared" ref="DO5" si="57">IF(AND(DO3=1,DP3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="DP5" s="10"/>
-      <c r="DQ5" s="10">
+      <c r="DP5" s="13"/>
+      <c r="DQ5" s="13">
         <f t="shared" ref="DQ5" si="58">IF(AND(DQ3=1,DR3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="DR5" s="10"/>
-      <c r="DS5" s="10">
+      <c r="DR5" s="13"/>
+      <c r="DS5" s="13">
         <f t="shared" ref="DS5" si="59">IF(AND(DS3=1,DT3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="DT5" s="10"/>
-      <c r="DU5" s="10">
+      <c r="DT5" s="13"/>
+      <c r="DU5" s="13">
         <f t="shared" ref="DU5" si="60">IF(AND(DU3=1,DV3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="DV5" s="10"/>
-      <c r="DW5" s="10">
+      <c r="DV5" s="13"/>
+      <c r="DW5" s="13">
         <f t="shared" ref="DW5" si="61">IF(AND(DW3=1,DX3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="DX5" s="10"/>
-      <c r="DY5" s="10">
+      <c r="DX5" s="13"/>
+      <c r="DY5" s="13">
         <f t="shared" ref="DY5" si="62">IF(AND(DY3=1,DZ3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="DZ5" s="10"/>
-      <c r="EA5" s="10">
+      <c r="DZ5" s="13"/>
+      <c r="EA5" s="13">
         <f t="shared" ref="EA5" si="63">IF(AND(EA3=1,EB3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="EB5" s="10"/>
-      <c r="EC5" s="10">
+      <c r="EB5" s="13"/>
+      <c r="EC5" s="13">
         <f t="shared" ref="EC5" si="64">IF(AND(EC3=1,ED3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="ED5" s="10"/>
-      <c r="EE5" s="10">
+      <c r="ED5" s="13"/>
+      <c r="EE5" s="13">
         <f t="shared" ref="EE5" si="65">IF(AND(EE3=1,EF3=0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="EF5" s="10"/>
-      <c r="EG5" s="10">
+      <c r="EF5" s="13"/>
+      <c r="EG5" s="13">
         <f t="shared" ref="EG5" si="66">IF(AND(EG3=1,EH3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="EH5" s="10"/>
-      <c r="EI5" s="10">
+      <c r="EH5" s="13"/>
+      <c r="EI5" s="13">
         <f t="shared" ref="EI5" si="67">IF(AND(EI3=1,EJ3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="EJ5" s="10"/>
-      <c r="EK5" s="10">
+      <c r="EJ5" s="13"/>
+      <c r="EK5" s="13">
         <f t="shared" ref="EK5" si="68">IF(AND(EK3=1,EL3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="EL5" s="10"/>
-      <c r="EM5" s="10">
+      <c r="EL5" s="13"/>
+      <c r="EM5" s="13">
         <f t="shared" ref="EM5" si="69">IF(AND(EM3=1,EN3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="EN5" s="10"/>
-      <c r="EO5" s="10">
+      <c r="EN5" s="13"/>
+      <c r="EO5" s="13">
         <f t="shared" ref="EO5" si="70">IF(AND(EO3=1,EP3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="EP5" s="10"/>
-      <c r="EQ5" s="10">
+      <c r="EP5" s="13"/>
+      <c r="EQ5" s="13">
         <f t="shared" ref="EQ5" si="71">IF(AND(EQ3=1,ER3=0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="ER5" s="10"/>
-      <c r="ES5" s="10">
+      <c r="ER5" s="13"/>
+      <c r="ES5" s="13">
         <f t="shared" ref="ES5" si="72">IF(AND(ES3=1,ET3=0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="ET5" s="10"/>
-      <c r="EU5" s="10">
+      <c r="ET5" s="13"/>
+      <c r="EU5" s="13">
         <f t="shared" ref="EU5" si="73">IF(AND(EU3=1,EV3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="EV5" s="10"/>
-      <c r="EW5" s="10">
+      <c r="EV5" s="13"/>
+      <c r="EW5" s="13">
         <f t="shared" ref="EW5" si="74">IF(AND(EW3=1,EX3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="EX5" s="10"/>
-      <c r="EY5" s="10">
+      <c r="EX5" s="13"/>
+      <c r="EY5" s="13">
         <f t="shared" ref="EY5" si="75">IF(AND(EY3=1,EZ3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="EZ5" s="10"/>
-      <c r="FA5" s="10">
+      <c r="EZ5" s="13"/>
+      <c r="FA5" s="13">
         <f t="shared" ref="FA5" si="76">IF(AND(FA3=1,FB3=0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="FB5" s="10"/>
-      <c r="FC5" s="10">
+      <c r="FB5" s="13"/>
+      <c r="FC5" s="13">
         <f t="shared" ref="FC5" si="77">IF(AND(FC3=1,FD3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="FD5" s="10"/>
-      <c r="FE5" s="10">
+      <c r="FD5" s="13"/>
+      <c r="FE5" s="13">
         <f t="shared" ref="FE5" si="78">IF(AND(FE3=1,FF3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="FF5" s="10"/>
-      <c r="FG5" s="10">
+      <c r="FF5" s="13"/>
+      <c r="FG5" s="13">
         <f t="shared" ref="FG5" si="79">IF(AND(FG3=1,FH3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="FH5" s="10"/>
-      <c r="FI5" s="10">
+      <c r="FH5" s="13"/>
+      <c r="FI5" s="13">
         <f t="shared" ref="FI5" si="80">IF(AND(FI3=1,FJ3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="FJ5" s="10"/>
-      <c r="FK5" s="10">
+      <c r="FJ5" s="13"/>
+      <c r="FK5" s="13">
         <f t="shared" ref="FK5" si="81">IF(AND(FK3=1,FL3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="FL5" s="10"/>
-      <c r="FM5" s="10">
+      <c r="FL5" s="13"/>
+      <c r="FM5" s="13">
         <f t="shared" ref="FM5" si="82">IF(AND(FM3=1,FN3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="FN5" s="10"/>
-      <c r="FO5" s="10">
+      <c r="FN5" s="13"/>
+      <c r="FO5" s="13">
         <f t="shared" ref="FO5" si="83">IF(AND(FO3=1,FP3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="FP5" s="10"/>
-      <c r="FQ5" s="10">
+      <c r="FP5" s="13"/>
+      <c r="FQ5" s="13">
         <f t="shared" ref="FQ5" si="84">IF(AND(FQ3=1,FR3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="FR5" s="10"/>
-      <c r="FS5" s="10">
+      <c r="FR5" s="13"/>
+      <c r="FS5" s="13">
         <f t="shared" ref="FS5" si="85">IF(AND(FS3=1,FT3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="FT5" s="10"/>
-      <c r="FU5" s="10">
+      <c r="FT5" s="13"/>
+      <c r="FU5" s="13">
         <f t="shared" ref="FU5" si="86">IF(AND(FU3=1,FV3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="FV5" s="10"/>
-      <c r="FW5" s="10">
+      <c r="FV5" s="13"/>
+      <c r="FW5" s="13">
         <f t="shared" ref="FW5" si="87">IF(AND(FW3=1,FX3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="FX5" s="10"/>
-      <c r="FY5" s="10">
+      <c r="FX5" s="13"/>
+      <c r="FY5" s="13">
         <f t="shared" ref="FY5" si="88">IF(AND(FY3=1,FZ3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="FZ5" s="10"/>
-      <c r="GA5" s="10">
+      <c r="FZ5" s="13"/>
+      <c r="GA5" s="13">
         <f t="shared" ref="GA5" si="89">IF(AND(GA3=1,GB3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="GB5" s="10"/>
-      <c r="GC5" s="10">
+      <c r="GB5" s="13"/>
+      <c r="GC5" s="13">
         <f t="shared" ref="GC5" si="90">IF(AND(GC3=1,GD3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="GD5" s="10"/>
-      <c r="GE5" s="10">
+      <c r="GD5" s="13"/>
+      <c r="GE5" s="13">
         <f t="shared" ref="GE5" si="91">IF(AND(GE3=1,GF3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="GF5" s="10"/>
-      <c r="GG5" s="10">
+      <c r="GF5" s="13"/>
+      <c r="GG5" s="13">
         <f t="shared" ref="GG5" si="92">IF(AND(GG3=1,GH3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="GH5" s="10"/>
-      <c r="GI5" s="10">
+      <c r="GH5" s="13"/>
+      <c r="GI5" s="13">
         <f t="shared" ref="GI5" si="93">IF(AND(GI3=1,GJ3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="GJ5" s="10"/>
-      <c r="GK5" s="10">
+      <c r="GJ5" s="13"/>
+      <c r="GK5" s="13">
         <f t="shared" ref="GK5" si="94">IF(AND(GK3=1,GL3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="GL5" s="10"/>
-      <c r="GM5" s="10">
+      <c r="GL5" s="13"/>
+      <c r="GM5" s="13">
         <f t="shared" ref="GM5" si="95">IF(AND(GM3=1,GN3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="GN5" s="10"/>
-      <c r="GO5" s="10">
+      <c r="GN5" s="13"/>
+      <c r="GO5" s="13">
         <f t="shared" ref="GO5" si="96">IF(AND(GO3=1,GP3=0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="GP5" s="10"/>
-      <c r="GQ5" s="10">
+      <c r="GP5" s="13"/>
+      <c r="GQ5" s="13">
         <f t="shared" ref="GQ5" si="97">IF(AND(GQ3=1,GR3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="GR5" s="10"/>
-      <c r="GS5" s="10">
+      <c r="GR5" s="13"/>
+      <c r="GS5" s="13">
         <f t="shared" ref="GS5" si="98">IF(AND(GS3=1,GT3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="GT5" s="10"/>
-      <c r="GU5" s="10">
+      <c r="GT5" s="13"/>
+      <c r="GU5" s="13">
         <f t="shared" ref="GU5" si="99">IF(AND(GU3=1,GV3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="GV5" s="10"/>
-      <c r="GW5" s="10">
+      <c r="GV5" s="13"/>
+      <c r="GW5" s="13">
         <f t="shared" ref="GW5" si="100">IF(AND(GW3=1,GX3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="GX5" s="10"/>
-      <c r="GY5" s="10">
+      <c r="GX5" s="13"/>
+      <c r="GY5" s="13">
         <f t="shared" ref="GY5" si="101">IF(AND(GY3=1,GZ3=0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="GZ5" s="10"/>
-      <c r="HA5" s="10">
+      <c r="GZ5" s="13"/>
+      <c r="HA5" s="13">
         <f t="shared" ref="HA5" si="102">IF(AND(HA3=1,HB3=0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="HB5" s="10"/>
-      <c r="HC5" s="10">
+      <c r="HB5" s="13"/>
+      <c r="HC5" s="13">
         <f t="shared" ref="HC5" si="103">IF(AND(HC3=1,HD3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="HD5" s="10"/>
-      <c r="HE5" s="10">
+      <c r="HD5" s="13"/>
+      <c r="HE5" s="13">
         <f t="shared" ref="HE5" si="104">IF(AND(HE3=1,HF3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="HF5" s="10"/>
-      <c r="HG5" s="10">
+      <c r="HF5" s="13"/>
+      <c r="HG5" s="13">
         <f t="shared" ref="HG5" si="105">IF(AND(HG3=1,HH3=0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="HH5" s="10"/>
-      <c r="HI5" s="10">
+      <c r="HH5" s="13"/>
+      <c r="HI5" s="13">
         <f t="shared" ref="HI5" si="106">IF(AND(HI3=1,HJ3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="HJ5" s="10"/>
-      <c r="HK5" s="10">
+      <c r="HJ5" s="13"/>
+      <c r="HK5" s="13">
         <f t="shared" ref="HK5" si="107">IF(AND(HK3=1,HL3=0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="HL5" s="10"/>
-      <c r="HM5" s="10">
+      <c r="HL5" s="13"/>
+      <c r="HM5" s="13">
         <f t="shared" ref="HM5" si="108">IF(AND(HM3=1,HN3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="HN5" s="10"/>
-      <c r="HO5" s="10">
+      <c r="HN5" s="13"/>
+      <c r="HO5" s="13">
         <f t="shared" ref="HO5" si="109">IF(AND(HO3=1,HP3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="HP5" s="10"/>
-      <c r="HQ5" s="10">
+      <c r="HP5" s="13"/>
+      <c r="HQ5" s="13">
         <f t="shared" ref="HQ5" si="110">IF(AND(HQ3=1,HR3=0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="HR5" s="10"/>
-      <c r="HS5" s="10">
+      <c r="HR5" s="13"/>
+      <c r="HS5" s="13">
         <f t="shared" ref="HS5" si="111">IF(AND(HS3=1,HT3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="HT5" s="10"/>
-      <c r="HU5" s="10">
+      <c r="HT5" s="13"/>
+      <c r="HU5" s="13">
         <f t="shared" ref="HU5" si="112">IF(AND(HU3=1,HV3=0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="HV5" s="10"/>
-      <c r="HW5" s="10">
+      <c r="HV5" s="13"/>
+      <c r="HW5" s="13">
         <f t="shared" ref="HW5" si="113">IF(AND(HW3=1,HX3=0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="HX5" s="10"/>
-      <c r="HY5" s="10">
+      <c r="HX5" s="13"/>
+      <c r="HY5" s="13">
         <f t="shared" ref="HY5" si="114">IF(AND(HY3=1,HZ3=0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="HZ5" s="10"/>
-      <c r="IA5" s="10">
+      <c r="HZ5" s="13"/>
+      <c r="IA5" s="13">
         <f t="shared" ref="IA5" si="115">IF(AND(IA3=1,IB3=0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="IB5" s="10"/>
-      <c r="IC5" s="10">
+      <c r="IB5" s="13"/>
+      <c r="IC5" s="13">
         <f t="shared" ref="IC5" si="116">IF(AND(IC3=1,ID3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="ID5" s="10"/>
-      <c r="IE5" s="10">
+      <c r="ID5" s="13"/>
+      <c r="IE5" s="13">
         <f t="shared" ref="IE5" si="117">IF(AND(IE3=1,IF3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="IF5" s="10"/>
-      <c r="IG5" s="10">
+      <c r="IF5" s="13"/>
+      <c r="IG5" s="13">
         <f t="shared" ref="IG5" si="118">IF(AND(IG3=1,IH3=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="IH5" s="10"/>
+      <c r="IH5" s="13"/>
       <c r="II5" t="s">
         <v>2</v>
       </c>
@@ -3271,112 +3325,112 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10" t="s">
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10" t="s">
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="10"/>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="10"/>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="10"/>
-      <c r="AS6" s="10"/>
-      <c r="AT6" s="10"/>
-      <c r="AU6" s="10"/>
-      <c r="AV6" s="10"/>
-      <c r="AW6" s="10"/>
-      <c r="AX6" s="10"/>
-      <c r="AY6" s="10"/>
-      <c r="AZ6" s="10"/>
-      <c r="BA6" s="10"/>
-      <c r="BB6" s="10"/>
-      <c r="BC6" s="10"/>
-      <c r="BD6" s="10"/>
-      <c r="BE6" s="10"/>
-      <c r="BF6" s="10"/>
-      <c r="BG6" s="10"/>
-      <c r="BH6" s="10"/>
-      <c r="BI6" s="10"/>
-      <c r="BJ6" s="10"/>
-      <c r="BK6" s="10"/>
-      <c r="BL6" s="10"/>
-      <c r="BM6" s="10"/>
-      <c r="BN6" s="10"/>
-      <c r="BO6" s="10"/>
-      <c r="BP6" s="10"/>
-      <c r="BQ6" s="10"/>
-      <c r="BR6" s="10"/>
-      <c r="BS6" s="10"/>
-      <c r="BT6" s="10"/>
-      <c r="BU6" s="10"/>
-      <c r="BV6" s="10"/>
-      <c r="BW6" s="10"/>
-      <c r="BX6" s="10"/>
-      <c r="BY6" s="10"/>
-      <c r="BZ6" s="10"/>
-      <c r="CA6" s="10"/>
-      <c r="CB6" s="10"/>
-      <c r="CC6" s="10"/>
-      <c r="CD6" s="10"/>
-      <c r="CE6" s="4" t="s">
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="13"/>
+      <c r="AZ6" s="13"/>
+      <c r="BA6" s="13"/>
+      <c r="BB6" s="13"/>
+      <c r="BC6" s="13"/>
+      <c r="BD6" s="13"/>
+      <c r="BE6" s="13"/>
+      <c r="BF6" s="13"/>
+      <c r="BG6" s="13"/>
+      <c r="BH6" s="13"/>
+      <c r="BI6" s="13"/>
+      <c r="BJ6" s="13"/>
+      <c r="BK6" s="13"/>
+      <c r="BL6" s="13"/>
+      <c r="BM6" s="13"/>
+      <c r="BN6" s="13"/>
+      <c r="BO6" s="13"/>
+      <c r="BP6" s="13"/>
+      <c r="BQ6" s="13"/>
+      <c r="BR6" s="13"/>
+      <c r="BS6" s="13"/>
+      <c r="BT6" s="13"/>
+      <c r="BU6" s="13"/>
+      <c r="BV6" s="13"/>
+      <c r="BW6" s="13"/>
+      <c r="BX6" s="13"/>
+      <c r="BY6" s="13"/>
+      <c r="BZ6" s="13"/>
+      <c r="CA6" s="13"/>
+      <c r="CB6" s="13"/>
+      <c r="CC6" s="13"/>
+      <c r="CD6" s="13"/>
+      <c r="CE6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="CF6" s="5"/>
-      <c r="CG6" s="5"/>
-      <c r="CH6" s="5"/>
-      <c r="CI6" s="5"/>
-      <c r="CJ6" s="5"/>
-      <c r="CK6" s="5"/>
-      <c r="CL6" s="5"/>
-      <c r="CM6" s="5"/>
-      <c r="CN6" s="5"/>
-      <c r="CO6" s="5"/>
-      <c r="CP6" s="5"/>
-      <c r="CQ6" s="5"/>
-      <c r="CR6" s="5"/>
-      <c r="CS6" s="5"/>
-      <c r="CT6" s="6"/>
+      <c r="CF6" s="14"/>
+      <c r="CG6" s="14"/>
+      <c r="CH6" s="14"/>
+      <c r="CI6" s="14"/>
+      <c r="CJ6" s="14"/>
+      <c r="CK6" s="14"/>
+      <c r="CL6" s="14"/>
+      <c r="CM6" s="14"/>
+      <c r="CN6" s="14"/>
+      <c r="CO6" s="14"/>
+      <c r="CP6" s="14"/>
+      <c r="CQ6" s="14"/>
+      <c r="CR6" s="14"/>
+      <c r="CS6" s="14"/>
+      <c r="CT6" s="12"/>
       <c r="CU6" s="2"/>
       <c r="CV6" s="2"/>
       <c r="CW6" s="2"/>
@@ -3526,126 +3580,126 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10" t="str">
+      <c r="C7" s="13" t="str">
         <f>_xlfn.CONCAT(C5:R5)</f>
         <v>11000000</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10" t="str">
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13" t="str">
         <f>_xlfn.CONCAT(S5:AB5)</f>
         <v>10100</v>
       </c>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10" t="str">
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13" t="str">
         <f>_xlfn.CONCAT(AC5:AH5)</f>
         <v>000</v>
       </c>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10" t="str">
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13" t="str">
         <f>_xlfn.CONCAT(AI5:AT5)</f>
         <v>000000</v>
       </c>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="10"/>
-      <c r="AO7" s="10"/>
-      <c r="AP7" s="10"/>
-      <c r="AQ7" s="10"/>
-      <c r="AR7" s="10"/>
-      <c r="AS7" s="10"/>
-      <c r="AT7" s="10"/>
-      <c r="AU7" s="10" t="str">
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13" t="str">
         <f>_xlfn.CONCAT(AU5:BF5)</f>
         <v>000000</v>
       </c>
-      <c r="AV7" s="10"/>
-      <c r="AW7" s="10"/>
-      <c r="AX7" s="10"/>
-      <c r="AY7" s="10"/>
-      <c r="AZ7" s="10"/>
-      <c r="BA7" s="10"/>
-      <c r="BB7" s="10"/>
-      <c r="BC7" s="10"/>
-      <c r="BD7" s="10"/>
-      <c r="BE7" s="10"/>
-      <c r="BF7" s="10"/>
-      <c r="BG7" s="10" t="str">
+      <c r="AV7" s="13"/>
+      <c r="AW7" s="13"/>
+      <c r="AX7" s="13"/>
+      <c r="AY7" s="13"/>
+      <c r="AZ7" s="13"/>
+      <c r="BA7" s="13"/>
+      <c r="BB7" s="13"/>
+      <c r="BC7" s="13"/>
+      <c r="BD7" s="13"/>
+      <c r="BE7" s="13"/>
+      <c r="BF7" s="13"/>
+      <c r="BG7" s="13" t="str">
         <f>_xlfn.CONCAT(BG5:BR5)</f>
         <v>010110</v>
       </c>
-      <c r="BH7" s="10"/>
-      <c r="BI7" s="10"/>
-      <c r="BJ7" s="10"/>
-      <c r="BK7" s="10"/>
-      <c r="BL7" s="10"/>
-      <c r="BM7" s="10"/>
-      <c r="BN7" s="10"/>
-      <c r="BO7" s="10"/>
-      <c r="BP7" s="10"/>
-      <c r="BQ7" s="10"/>
-      <c r="BR7" s="10"/>
-      <c r="BS7" s="10" t="str">
+      <c r="BH7" s="13"/>
+      <c r="BI7" s="13"/>
+      <c r="BJ7" s="13"/>
+      <c r="BK7" s="13"/>
+      <c r="BL7" s="13"/>
+      <c r="BM7" s="13"/>
+      <c r="BN7" s="13"/>
+      <c r="BO7" s="13"/>
+      <c r="BP7" s="13"/>
+      <c r="BQ7" s="13"/>
+      <c r="BR7" s="13"/>
+      <c r="BS7" s="13" t="str">
         <f>_xlfn.CONCAT(BS5:CD5)</f>
         <v>110110</v>
       </c>
-      <c r="BT7" s="10"/>
-      <c r="BU7" s="10"/>
-      <c r="BV7" s="10"/>
-      <c r="BW7" s="10"/>
-      <c r="BX7" s="10"/>
-      <c r="BY7" s="10"/>
-      <c r="BZ7" s="10"/>
-      <c r="CA7" s="10"/>
-      <c r="CB7" s="10"/>
-      <c r="CC7" s="10"/>
-      <c r="CD7" s="10"/>
-      <c r="CE7" s="7" t="str">
+      <c r="BT7" s="13"/>
+      <c r="BU7" s="13"/>
+      <c r="BV7" s="13"/>
+      <c r="BW7" s="13"/>
+      <c r="BX7" s="13"/>
+      <c r="BY7" s="13"/>
+      <c r="BZ7" s="13"/>
+      <c r="CA7" s="13"/>
+      <c r="CB7" s="13"/>
+      <c r="CC7" s="13"/>
+      <c r="CD7" s="13"/>
+      <c r="CE7" s="15" t="str">
         <f>_xlfn.CONCAT(CE5:CT5)</f>
         <v>10011010</v>
       </c>
-      <c r="CF7" s="8"/>
-      <c r="CG7" s="8"/>
-      <c r="CH7" s="8"/>
-      <c r="CI7" s="8"/>
-      <c r="CJ7" s="8"/>
-      <c r="CK7" s="8"/>
-      <c r="CL7" s="8"/>
-      <c r="CM7" s="8"/>
-      <c r="CN7" s="8"/>
-      <c r="CO7" s="8"/>
-      <c r="CP7" s="8"/>
-      <c r="CQ7" s="8"/>
-      <c r="CR7" s="8"/>
-      <c r="CS7" s="8"/>
-      <c r="CT7" s="9"/>
+      <c r="CF7" s="16"/>
+      <c r="CG7" s="16"/>
+      <c r="CH7" s="16"/>
+      <c r="CI7" s="16"/>
+      <c r="CJ7" s="16"/>
+      <c r="CK7" s="16"/>
+      <c r="CL7" s="16"/>
+      <c r="CM7" s="16"/>
+      <c r="CN7" s="16"/>
+      <c r="CO7" s="16"/>
+      <c r="CP7" s="16"/>
+      <c r="CQ7" s="16"/>
+      <c r="CR7" s="16"/>
+      <c r="CS7" s="16"/>
+      <c r="CT7" s="17"/>
       <c r="CU7" s="2"/>
       <c r="CV7" s="2"/>
       <c r="CW7" s="2"/>
@@ -3795,117 +3849,117 @@
       <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="10" t="str">
+      <c r="C8" s="13" t="str">
         <f>BIN2HEX(C7)</f>
         <v>C0</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10" t="str">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13" t="str">
         <f>BIN2HEX(S7)</f>
         <v>14</v>
       </c>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10" t="str">
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13" t="str">
         <f>BIN2HEX(AC7)</f>
         <v>0</v>
       </c>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="4" t="str">
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="11" t="str">
         <f>_xlfn.CONCAT(AI7:CD7)</f>
         <v>000000000000010110110110</v>
       </c>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="5"/>
-      <c r="AQ8" s="5"/>
-      <c r="AR8" s="5"/>
-      <c r="AS8" s="5"/>
-      <c r="AT8" s="5"/>
-      <c r="AU8" s="5"/>
-      <c r="AV8" s="5"/>
-      <c r="AW8" s="5"/>
-      <c r="AX8" s="5"/>
-      <c r="AY8" s="5"/>
-      <c r="AZ8" s="5"/>
-      <c r="BA8" s="5"/>
-      <c r="BB8" s="5"/>
-      <c r="BC8" s="5"/>
-      <c r="BD8" s="5"/>
-      <c r="BE8" s="5"/>
-      <c r="BF8" s="5"/>
-      <c r="BG8" s="5"/>
-      <c r="BH8" s="5"/>
-      <c r="BI8" s="5"/>
-      <c r="BJ8" s="5"/>
-      <c r="BK8" s="5"/>
-      <c r="BL8" s="5"/>
-      <c r="BM8" s="5"/>
-      <c r="BN8" s="5"/>
-      <c r="BO8" s="5"/>
-      <c r="BP8" s="5"/>
-      <c r="BQ8" s="5"/>
-      <c r="BR8" s="5"/>
-      <c r="BS8" s="5"/>
-      <c r="BT8" s="5"/>
-      <c r="BU8" s="5"/>
-      <c r="BV8" s="5"/>
-      <c r="BW8" s="5"/>
-      <c r="BX8" s="5"/>
-      <c r="BY8" s="5"/>
-      <c r="BZ8" s="5"/>
-      <c r="CA8" s="5"/>
-      <c r="CB8" s="5"/>
-      <c r="CC8" s="5"/>
-      <c r="CD8" s="6"/>
-      <c r="CE8" s="4" t="str">
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="14"/>
+      <c r="AS8" s="14"/>
+      <c r="AT8" s="14"/>
+      <c r="AU8" s="14"/>
+      <c r="AV8" s="14"/>
+      <c r="AW8" s="14"/>
+      <c r="AX8" s="14"/>
+      <c r="AY8" s="14"/>
+      <c r="AZ8" s="14"/>
+      <c r="BA8" s="14"/>
+      <c r="BB8" s="14"/>
+      <c r="BC8" s="14"/>
+      <c r="BD8" s="14"/>
+      <c r="BE8" s="14"/>
+      <c r="BF8" s="14"/>
+      <c r="BG8" s="14"/>
+      <c r="BH8" s="14"/>
+      <c r="BI8" s="14"/>
+      <c r="BJ8" s="14"/>
+      <c r="BK8" s="14"/>
+      <c r="BL8" s="14"/>
+      <c r="BM8" s="14"/>
+      <c r="BN8" s="14"/>
+      <c r="BO8" s="14"/>
+      <c r="BP8" s="14"/>
+      <c r="BQ8" s="14"/>
+      <c r="BR8" s="14"/>
+      <c r="BS8" s="14"/>
+      <c r="BT8" s="14"/>
+      <c r="BU8" s="14"/>
+      <c r="BV8" s="14"/>
+      <c r="BW8" s="14"/>
+      <c r="BX8" s="14"/>
+      <c r="BY8" s="14"/>
+      <c r="BZ8" s="14"/>
+      <c r="CA8" s="14"/>
+      <c r="CB8" s="14"/>
+      <c r="CC8" s="14"/>
+      <c r="CD8" s="12"/>
+      <c r="CE8" s="11" t="str">
         <f>BIN2HEX(CE7)</f>
         <v>9A</v>
       </c>
-      <c r="CF8" s="5"/>
-      <c r="CG8" s="5"/>
-      <c r="CH8" s="5"/>
-      <c r="CI8" s="5"/>
-      <c r="CJ8" s="5"/>
-      <c r="CK8" s="5"/>
-      <c r="CL8" s="5"/>
-      <c r="CM8" s="5"/>
-      <c r="CN8" s="5"/>
-      <c r="CO8" s="5"/>
-      <c r="CP8" s="5"/>
-      <c r="CQ8" s="5"/>
-      <c r="CR8" s="5"/>
-      <c r="CS8" s="5"/>
-      <c r="CT8" s="6"/>
+      <c r="CF8" s="14"/>
+      <c r="CG8" s="14"/>
+      <c r="CH8" s="14"/>
+      <c r="CI8" s="14"/>
+      <c r="CJ8" s="14"/>
+      <c r="CK8" s="14"/>
+      <c r="CL8" s="14"/>
+      <c r="CM8" s="14"/>
+      <c r="CN8" s="14"/>
+      <c r="CO8" s="14"/>
+      <c r="CP8" s="14"/>
+      <c r="CQ8" s="14"/>
+      <c r="CR8" s="14"/>
+      <c r="CS8" s="14"/>
+      <c r="CT8" s="12"/>
       <c r="CU8" s="2"/>
       <c r="CV8" s="2"/>
       <c r="CW8" s="2"/>
@@ -4055,126 +4109,126 @@
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="13">
         <f>BIN2DEC(C7)</f>
         <v>192</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13">
         <f>BIN2DEC(S7)</f>
         <v>20</v>
       </c>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10">
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13">
         <f>BIN2DEC(AC7)</f>
         <v>0</v>
       </c>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10">
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13">
         <f>BIN2DEC(AI7)</f>
         <v>0</v>
       </c>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="10"/>
-      <c r="AN9" s="10"/>
-      <c r="AO9" s="10"/>
-      <c r="AP9" s="10"/>
-      <c r="AQ9" s="10"/>
-      <c r="AR9" s="10"/>
-      <c r="AS9" s="10"/>
-      <c r="AT9" s="10"/>
-      <c r="AU9" s="10">
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="13">
         <f t="shared" ref="AU9" si="119">BIN2DEC(AU7)</f>
         <v>0</v>
       </c>
-      <c r="AV9" s="10"/>
-      <c r="AW9" s="10"/>
-      <c r="AX9" s="10"/>
-      <c r="AY9" s="10"/>
-      <c r="AZ9" s="10"/>
-      <c r="BA9" s="10"/>
-      <c r="BB9" s="10"/>
-      <c r="BC9" s="10"/>
-      <c r="BD9" s="10"/>
-      <c r="BE9" s="10"/>
-      <c r="BF9" s="10"/>
-      <c r="BG9" s="10">
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="13"/>
+      <c r="AX9" s="13"/>
+      <c r="AY9" s="13"/>
+      <c r="AZ9" s="13"/>
+      <c r="BA9" s="13"/>
+      <c r="BB9" s="13"/>
+      <c r="BC9" s="13"/>
+      <c r="BD9" s="13"/>
+      <c r="BE9" s="13"/>
+      <c r="BF9" s="13"/>
+      <c r="BG9" s="13">
         <f t="shared" ref="BG9" si="120">BIN2DEC(BG7)</f>
         <v>22</v>
       </c>
-      <c r="BH9" s="10"/>
-      <c r="BI9" s="10"/>
-      <c r="BJ9" s="10"/>
-      <c r="BK9" s="10"/>
-      <c r="BL9" s="10"/>
-      <c r="BM9" s="10"/>
-      <c r="BN9" s="10"/>
-      <c r="BO9" s="10"/>
-      <c r="BP9" s="10"/>
-      <c r="BQ9" s="10"/>
-      <c r="BR9" s="10"/>
-      <c r="BS9" s="10">
+      <c r="BH9" s="13"/>
+      <c r="BI9" s="13"/>
+      <c r="BJ9" s="13"/>
+      <c r="BK9" s="13"/>
+      <c r="BL9" s="13"/>
+      <c r="BM9" s="13"/>
+      <c r="BN9" s="13"/>
+      <c r="BO9" s="13"/>
+      <c r="BP9" s="13"/>
+      <c r="BQ9" s="13"/>
+      <c r="BR9" s="13"/>
+      <c r="BS9" s="13">
         <f t="shared" ref="BS9" si="121">BIN2DEC(BS7)</f>
         <v>54</v>
       </c>
-      <c r="BT9" s="10"/>
-      <c r="BU9" s="10"/>
-      <c r="BV9" s="10"/>
-      <c r="BW9" s="10"/>
-      <c r="BX9" s="10"/>
-      <c r="BY9" s="10"/>
-      <c r="BZ9" s="10"/>
-      <c r="CA9" s="10"/>
-      <c r="CB9" s="10"/>
-      <c r="CC9" s="10"/>
-      <c r="CD9" s="10"/>
-      <c r="CE9" s="4">
+      <c r="BT9" s="13"/>
+      <c r="BU9" s="13"/>
+      <c r="BV9" s="13"/>
+      <c r="BW9" s="13"/>
+      <c r="BX9" s="13"/>
+      <c r="BY9" s="13"/>
+      <c r="BZ9" s="13"/>
+      <c r="CA9" s="13"/>
+      <c r="CB9" s="13"/>
+      <c r="CC9" s="13"/>
+      <c r="CD9" s="13"/>
+      <c r="CE9" s="11">
         <f>BIN2DEC(CE7)</f>
         <v>154</v>
       </c>
-      <c r="CF9" s="5"/>
-      <c r="CG9" s="5"/>
-      <c r="CH9" s="5"/>
-      <c r="CI9" s="5"/>
-      <c r="CJ9" s="5"/>
-      <c r="CK9" s="5"/>
-      <c r="CL9" s="5"/>
-      <c r="CM9" s="5"/>
-      <c r="CN9" s="5"/>
-      <c r="CO9" s="5"/>
-      <c r="CP9" s="5"/>
-      <c r="CQ9" s="5"/>
-      <c r="CR9" s="5"/>
-      <c r="CS9" s="5"/>
-      <c r="CT9" s="6"/>
+      <c r="CF9" s="14"/>
+      <c r="CG9" s="14"/>
+      <c r="CH9" s="14"/>
+      <c r="CI9" s="14"/>
+      <c r="CJ9" s="14"/>
+      <c r="CK9" s="14"/>
+      <c r="CL9" s="14"/>
+      <c r="CM9" s="14"/>
+      <c r="CN9" s="14"/>
+      <c r="CO9" s="14"/>
+      <c r="CP9" s="14"/>
+      <c r="CQ9" s="14"/>
+      <c r="CR9" s="14"/>
+      <c r="CS9" s="14"/>
+      <c r="CT9" s="12"/>
       <c r="CU9" s="2"/>
       <c r="CV9" s="2"/>
       <c r="CW9" s="2"/>
@@ -4324,117 +4378,117 @@
       <c r="B10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10" t="str">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13" t="str">
         <f>_xlfn.XLOOKUP(AI9,LOOKUP!$B$4:$B$67,LOOKUP!$C$4:$C$67)</f>
         <v>#</v>
       </c>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="10"/>
-      <c r="AL10" s="10"/>
-      <c r="AM10" s="10"/>
-      <c r="AN10" s="10"/>
-      <c r="AO10" s="10"/>
-      <c r="AP10" s="10"/>
-      <c r="AQ10" s="10"/>
-      <c r="AR10" s="10"/>
-      <c r="AS10" s="10"/>
-      <c r="AT10" s="10"/>
-      <c r="AU10" s="10" t="str">
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="13" t="str">
         <f>_xlfn.XLOOKUP(AU9,LOOKUP!$B$4:$B$67,LOOKUP!$C$4:$C$67)</f>
         <v>#</v>
       </c>
-      <c r="AV10" s="10"/>
-      <c r="AW10" s="10"/>
-      <c r="AX10" s="10"/>
-      <c r="AY10" s="10"/>
-      <c r="AZ10" s="10"/>
-      <c r="BA10" s="10"/>
-      <c r="BB10" s="10"/>
-      <c r="BC10" s="10"/>
-      <c r="BD10" s="10"/>
-      <c r="BE10" s="10"/>
-      <c r="BF10" s="10"/>
-      <c r="BG10" s="10" t="str">
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="13"/>
+      <c r="AX10" s="13"/>
+      <c r="AY10" s="13"/>
+      <c r="AZ10" s="13"/>
+      <c r="BA10" s="13"/>
+      <c r="BB10" s="13"/>
+      <c r="BC10" s="13"/>
+      <c r="BD10" s="13"/>
+      <c r="BE10" s="13"/>
+      <c r="BF10" s="13"/>
+      <c r="BG10" s="13" t="str">
         <f>_xlfn.XLOOKUP(BG9,LOOKUP!$B$4:$B$67,LOOKUP!$C$4:$C$67)</f>
         <v>V</v>
       </c>
-      <c r="BH10" s="10"/>
-      <c r="BI10" s="10"/>
-      <c r="BJ10" s="10"/>
-      <c r="BK10" s="10"/>
-      <c r="BL10" s="10"/>
-      <c r="BM10" s="10"/>
-      <c r="BN10" s="10"/>
-      <c r="BO10" s="10"/>
-      <c r="BP10" s="10"/>
-      <c r="BQ10" s="10"/>
-      <c r="BR10" s="10"/>
-      <c r="BS10" s="10">
+      <c r="BH10" s="13"/>
+      <c r="BI10" s="13"/>
+      <c r="BJ10" s="13"/>
+      <c r="BK10" s="13"/>
+      <c r="BL10" s="13"/>
+      <c r="BM10" s="13"/>
+      <c r="BN10" s="13"/>
+      <c r="BO10" s="13"/>
+      <c r="BP10" s="13"/>
+      <c r="BQ10" s="13"/>
+      <c r="BR10" s="13"/>
+      <c r="BS10" s="13">
         <f>_xlfn.XLOOKUP(BS9,LOOKUP!$B$4:$B$67,LOOKUP!$C$4:$C$67)</f>
         <v>6</v>
       </c>
-      <c r="BT10" s="10"/>
-      <c r="BU10" s="10"/>
-      <c r="BV10" s="10"/>
-      <c r="BW10" s="10"/>
-      <c r="BX10" s="10"/>
-      <c r="BY10" s="10"/>
-      <c r="BZ10" s="10"/>
-      <c r="CA10" s="10"/>
-      <c r="CB10" s="10"/>
-      <c r="CC10" s="10"/>
-      <c r="CD10" s="10"/>
-      <c r="CE10" s="4" t="e">
+      <c r="BT10" s="13"/>
+      <c r="BU10" s="13"/>
+      <c r="BV10" s="13"/>
+      <c r="BW10" s="13"/>
+      <c r="BX10" s="13"/>
+      <c r="BY10" s="13"/>
+      <c r="BZ10" s="13"/>
+      <c r="CA10" s="13"/>
+      <c r="CB10" s="13"/>
+      <c r="CC10" s="13"/>
+      <c r="CD10" s="13"/>
+      <c r="CE10" s="11" t="e">
         <f>_xlfn.XLOOKUP(CE9,LOOKUP!$B$4:$B$67,LOOKUP!$C$4:$C$67)</f>
         <v>#N/A</v>
       </c>
-      <c r="CF10" s="5"/>
-      <c r="CG10" s="5"/>
-      <c r="CH10" s="5"/>
-      <c r="CI10" s="5"/>
-      <c r="CJ10" s="5"/>
-      <c r="CK10" s="5"/>
-      <c r="CL10" s="5"/>
-      <c r="CM10" s="5"/>
-      <c r="CN10" s="5"/>
-      <c r="CO10" s="5"/>
-      <c r="CP10" s="5"/>
-      <c r="CQ10" s="5"/>
-      <c r="CR10" s="5"/>
-      <c r="CS10" s="5"/>
-      <c r="CT10" s="6"/>
+      <c r="CF10" s="14"/>
+      <c r="CG10" s="14"/>
+      <c r="CH10" s="14"/>
+      <c r="CI10" s="14"/>
+      <c r="CJ10" s="14"/>
+      <c r="CK10" s="14"/>
+      <c r="CL10" s="14"/>
+      <c r="CM10" s="14"/>
+      <c r="CN10" s="14"/>
+      <c r="CO10" s="14"/>
+      <c r="CP10" s="14"/>
+      <c r="CQ10" s="14"/>
+      <c r="CR10" s="14"/>
+      <c r="CS10" s="14"/>
+      <c r="CT10" s="12"/>
       <c r="CU10" s="2"/>
       <c r="CV10" s="2"/>
       <c r="CW10" s="2"/>
@@ -5073,256 +5127,6 @@
     </row>
   </sheetData>
   <mergeCells count="274">
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="BK4:BL4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BO4:BP4"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BS4:BT4"/>
-    <mergeCell ref="BU4:BV4"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="BA4:BB4"/>
-    <mergeCell ref="BC4:BD4"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="CI4:CJ4"/>
-    <mergeCell ref="CK4:CL4"/>
-    <mergeCell ref="CM4:CN4"/>
-    <mergeCell ref="CO4:CP4"/>
-    <mergeCell ref="CQ4:CR4"/>
-    <mergeCell ref="CS4:CT4"/>
-    <mergeCell ref="BW4:BX4"/>
-    <mergeCell ref="BY4:BZ4"/>
-    <mergeCell ref="CA4:CB4"/>
-    <mergeCell ref="CC4:CD4"/>
-    <mergeCell ref="CE4:CF4"/>
-    <mergeCell ref="CG4:CH4"/>
-    <mergeCell ref="DG4:DH4"/>
-    <mergeCell ref="DI4:DJ4"/>
-    <mergeCell ref="DK4:DL4"/>
-    <mergeCell ref="DM4:DN4"/>
-    <mergeCell ref="DO4:DP4"/>
-    <mergeCell ref="DQ4:DR4"/>
-    <mergeCell ref="CU4:CV4"/>
-    <mergeCell ref="CW4:CX4"/>
-    <mergeCell ref="CY4:CZ4"/>
-    <mergeCell ref="DA4:DB4"/>
-    <mergeCell ref="DC4:DD4"/>
-    <mergeCell ref="DE4:DF4"/>
-    <mergeCell ref="EE4:EF4"/>
-    <mergeCell ref="EG4:EH4"/>
-    <mergeCell ref="EI4:EJ4"/>
-    <mergeCell ref="EK4:EL4"/>
-    <mergeCell ref="EM4:EN4"/>
-    <mergeCell ref="EO4:EP4"/>
-    <mergeCell ref="DS4:DT4"/>
-    <mergeCell ref="DU4:DV4"/>
-    <mergeCell ref="DW4:DX4"/>
-    <mergeCell ref="DY4:DZ4"/>
-    <mergeCell ref="EA4:EB4"/>
-    <mergeCell ref="EC4:ED4"/>
-    <mergeCell ref="FC4:FD4"/>
-    <mergeCell ref="FE4:FF4"/>
-    <mergeCell ref="FG4:FH4"/>
-    <mergeCell ref="FI4:FJ4"/>
-    <mergeCell ref="FK4:FL4"/>
-    <mergeCell ref="FM4:FN4"/>
-    <mergeCell ref="EQ4:ER4"/>
-    <mergeCell ref="ES4:ET4"/>
-    <mergeCell ref="EU4:EV4"/>
-    <mergeCell ref="EW4:EX4"/>
-    <mergeCell ref="EY4:EZ4"/>
-    <mergeCell ref="FA4:FB4"/>
-    <mergeCell ref="GA4:GB4"/>
-    <mergeCell ref="GC4:GD4"/>
-    <mergeCell ref="GE4:GF4"/>
-    <mergeCell ref="GG4:GH4"/>
-    <mergeCell ref="GI4:GJ4"/>
-    <mergeCell ref="GK4:GL4"/>
-    <mergeCell ref="FO4:FP4"/>
-    <mergeCell ref="FQ4:FR4"/>
-    <mergeCell ref="FS4:FT4"/>
-    <mergeCell ref="FU4:FV4"/>
-    <mergeCell ref="FW4:FX4"/>
-    <mergeCell ref="FY4:FZ4"/>
-    <mergeCell ref="GY4:GZ4"/>
-    <mergeCell ref="HA4:HB4"/>
-    <mergeCell ref="HC4:HD4"/>
-    <mergeCell ref="HE4:HF4"/>
-    <mergeCell ref="HG4:HH4"/>
-    <mergeCell ref="HI4:HJ4"/>
-    <mergeCell ref="GM4:GN4"/>
-    <mergeCell ref="GO4:GP4"/>
-    <mergeCell ref="GQ4:GR4"/>
-    <mergeCell ref="GS4:GT4"/>
-    <mergeCell ref="GU4:GV4"/>
-    <mergeCell ref="GW4:GX4"/>
-    <mergeCell ref="HW4:HX4"/>
-    <mergeCell ref="HY4:HZ4"/>
-    <mergeCell ref="IA4:IB4"/>
-    <mergeCell ref="IC4:ID4"/>
-    <mergeCell ref="IE4:IF4"/>
-    <mergeCell ref="IG4:IH4"/>
-    <mergeCell ref="HK4:HL4"/>
-    <mergeCell ref="HM4:HN4"/>
-    <mergeCell ref="HO4:HP4"/>
-    <mergeCell ref="HQ4:HR4"/>
-    <mergeCell ref="HS4:HT4"/>
-    <mergeCell ref="HU4:HV4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="BO5:BP5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BU5:BV5"/>
-    <mergeCell ref="BW5:BX5"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="CQ5:CR5"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="CU5:CV5"/>
-    <mergeCell ref="CW5:CX5"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CC5:CD5"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="CI5:CJ5"/>
-    <mergeCell ref="CK5:CL5"/>
-    <mergeCell ref="DK5:DL5"/>
-    <mergeCell ref="DM5:DN5"/>
-    <mergeCell ref="DO5:DP5"/>
-    <mergeCell ref="DQ5:DR5"/>
-    <mergeCell ref="DS5:DT5"/>
-    <mergeCell ref="DU5:DV5"/>
-    <mergeCell ref="CY5:CZ5"/>
-    <mergeCell ref="DA5:DB5"/>
-    <mergeCell ref="DC5:DD5"/>
-    <mergeCell ref="DE5:DF5"/>
-    <mergeCell ref="DG5:DH5"/>
-    <mergeCell ref="DI5:DJ5"/>
-    <mergeCell ref="EI5:EJ5"/>
-    <mergeCell ref="EK5:EL5"/>
-    <mergeCell ref="EM5:EN5"/>
-    <mergeCell ref="EO5:EP5"/>
-    <mergeCell ref="EQ5:ER5"/>
-    <mergeCell ref="ES5:ET5"/>
-    <mergeCell ref="DW5:DX5"/>
-    <mergeCell ref="DY5:DZ5"/>
-    <mergeCell ref="EA5:EB5"/>
-    <mergeCell ref="EC5:ED5"/>
-    <mergeCell ref="EE5:EF5"/>
-    <mergeCell ref="EG5:EH5"/>
-    <mergeCell ref="FG5:FH5"/>
-    <mergeCell ref="FI5:FJ5"/>
-    <mergeCell ref="FK5:FL5"/>
-    <mergeCell ref="FM5:FN5"/>
-    <mergeCell ref="FO5:FP5"/>
-    <mergeCell ref="FQ5:FR5"/>
-    <mergeCell ref="EU5:EV5"/>
-    <mergeCell ref="EW5:EX5"/>
-    <mergeCell ref="EY5:EZ5"/>
-    <mergeCell ref="FA5:FB5"/>
-    <mergeCell ref="FC5:FD5"/>
-    <mergeCell ref="FE5:FF5"/>
-    <mergeCell ref="GE5:GF5"/>
-    <mergeCell ref="GG5:GH5"/>
-    <mergeCell ref="GI5:GJ5"/>
-    <mergeCell ref="GK5:GL5"/>
-    <mergeCell ref="GM5:GN5"/>
-    <mergeCell ref="GO5:GP5"/>
-    <mergeCell ref="FS5:FT5"/>
-    <mergeCell ref="FU5:FV5"/>
-    <mergeCell ref="FW5:FX5"/>
-    <mergeCell ref="FY5:FZ5"/>
-    <mergeCell ref="GA5:GB5"/>
-    <mergeCell ref="GC5:GD5"/>
-    <mergeCell ref="HC5:HD5"/>
-    <mergeCell ref="HE5:HF5"/>
-    <mergeCell ref="HG5:HH5"/>
-    <mergeCell ref="HI5:HJ5"/>
-    <mergeCell ref="HK5:HL5"/>
-    <mergeCell ref="HM5:HN5"/>
-    <mergeCell ref="GQ5:GR5"/>
-    <mergeCell ref="GS5:GT5"/>
-    <mergeCell ref="GU5:GV5"/>
-    <mergeCell ref="GW5:GX5"/>
-    <mergeCell ref="GY5:GZ5"/>
-    <mergeCell ref="HA5:HB5"/>
-    <mergeCell ref="IA5:IB5"/>
-    <mergeCell ref="IC5:ID5"/>
-    <mergeCell ref="IE5:IF5"/>
-    <mergeCell ref="IG5:IH5"/>
-    <mergeCell ref="HO5:HP5"/>
-    <mergeCell ref="HQ5:HR5"/>
-    <mergeCell ref="HS5:HT5"/>
-    <mergeCell ref="HU5:HV5"/>
-    <mergeCell ref="HW5:HX5"/>
-    <mergeCell ref="HY5:HZ5"/>
-    <mergeCell ref="AI7:AT7"/>
-    <mergeCell ref="C6:R6"/>
-    <mergeCell ref="S6:AB6"/>
-    <mergeCell ref="AC6:AH6"/>
-    <mergeCell ref="AI6:CD6"/>
-    <mergeCell ref="C7:R7"/>
-    <mergeCell ref="S7:AB7"/>
-    <mergeCell ref="AC7:AH7"/>
-    <mergeCell ref="AU7:BF7"/>
-    <mergeCell ref="BG7:BR7"/>
     <mergeCell ref="CE6:CT6"/>
     <mergeCell ref="CE7:CT7"/>
     <mergeCell ref="CE8:CT8"/>
@@ -5347,6 +5151,256 @@
     <mergeCell ref="AC9:AH9"/>
     <mergeCell ref="AI8:CD8"/>
     <mergeCell ref="BS7:CD7"/>
+    <mergeCell ref="AI7:AT7"/>
+    <mergeCell ref="C6:R6"/>
+    <mergeCell ref="S6:AB6"/>
+    <mergeCell ref="AC6:AH6"/>
+    <mergeCell ref="AI6:CD6"/>
+    <mergeCell ref="C7:R7"/>
+    <mergeCell ref="S7:AB7"/>
+    <mergeCell ref="AC7:AH7"/>
+    <mergeCell ref="AU7:BF7"/>
+    <mergeCell ref="BG7:BR7"/>
+    <mergeCell ref="IA5:IB5"/>
+    <mergeCell ref="IC5:ID5"/>
+    <mergeCell ref="IE5:IF5"/>
+    <mergeCell ref="IG5:IH5"/>
+    <mergeCell ref="HO5:HP5"/>
+    <mergeCell ref="HQ5:HR5"/>
+    <mergeCell ref="HS5:HT5"/>
+    <mergeCell ref="HU5:HV5"/>
+    <mergeCell ref="HW5:HX5"/>
+    <mergeCell ref="HY5:HZ5"/>
+    <mergeCell ref="HC5:HD5"/>
+    <mergeCell ref="HE5:HF5"/>
+    <mergeCell ref="HG5:HH5"/>
+    <mergeCell ref="HI5:HJ5"/>
+    <mergeCell ref="HK5:HL5"/>
+    <mergeCell ref="HM5:HN5"/>
+    <mergeCell ref="GQ5:GR5"/>
+    <mergeCell ref="GS5:GT5"/>
+    <mergeCell ref="GU5:GV5"/>
+    <mergeCell ref="GW5:GX5"/>
+    <mergeCell ref="GY5:GZ5"/>
+    <mergeCell ref="HA5:HB5"/>
+    <mergeCell ref="GE5:GF5"/>
+    <mergeCell ref="GG5:GH5"/>
+    <mergeCell ref="GI5:GJ5"/>
+    <mergeCell ref="GK5:GL5"/>
+    <mergeCell ref="GM5:GN5"/>
+    <mergeCell ref="GO5:GP5"/>
+    <mergeCell ref="FS5:FT5"/>
+    <mergeCell ref="FU5:FV5"/>
+    <mergeCell ref="FW5:FX5"/>
+    <mergeCell ref="FY5:FZ5"/>
+    <mergeCell ref="GA5:GB5"/>
+    <mergeCell ref="GC5:GD5"/>
+    <mergeCell ref="FG5:FH5"/>
+    <mergeCell ref="FI5:FJ5"/>
+    <mergeCell ref="FK5:FL5"/>
+    <mergeCell ref="FM5:FN5"/>
+    <mergeCell ref="FO5:FP5"/>
+    <mergeCell ref="FQ5:FR5"/>
+    <mergeCell ref="EU5:EV5"/>
+    <mergeCell ref="EW5:EX5"/>
+    <mergeCell ref="EY5:EZ5"/>
+    <mergeCell ref="FA5:FB5"/>
+    <mergeCell ref="FC5:FD5"/>
+    <mergeCell ref="FE5:FF5"/>
+    <mergeCell ref="EI5:EJ5"/>
+    <mergeCell ref="EK5:EL5"/>
+    <mergeCell ref="EM5:EN5"/>
+    <mergeCell ref="EO5:EP5"/>
+    <mergeCell ref="EQ5:ER5"/>
+    <mergeCell ref="ES5:ET5"/>
+    <mergeCell ref="DW5:DX5"/>
+    <mergeCell ref="DY5:DZ5"/>
+    <mergeCell ref="EA5:EB5"/>
+    <mergeCell ref="EC5:ED5"/>
+    <mergeCell ref="EE5:EF5"/>
+    <mergeCell ref="EG5:EH5"/>
+    <mergeCell ref="DK5:DL5"/>
+    <mergeCell ref="DM5:DN5"/>
+    <mergeCell ref="DO5:DP5"/>
+    <mergeCell ref="DQ5:DR5"/>
+    <mergeCell ref="DS5:DT5"/>
+    <mergeCell ref="DU5:DV5"/>
+    <mergeCell ref="CY5:CZ5"/>
+    <mergeCell ref="DA5:DB5"/>
+    <mergeCell ref="DC5:DD5"/>
+    <mergeCell ref="DE5:DF5"/>
+    <mergeCell ref="DG5:DH5"/>
+    <mergeCell ref="DI5:DJ5"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CO5:CP5"/>
+    <mergeCell ref="CQ5:CR5"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="CU5:CV5"/>
+    <mergeCell ref="CW5:CX5"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CC5:CD5"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="CI5:CJ5"/>
+    <mergeCell ref="CK5:CL5"/>
+    <mergeCell ref="BO5:BP5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BU5:BV5"/>
+    <mergeCell ref="BW5:BX5"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="HW4:HX4"/>
+    <mergeCell ref="HY4:HZ4"/>
+    <mergeCell ref="IA4:IB4"/>
+    <mergeCell ref="IC4:ID4"/>
+    <mergeCell ref="IE4:IF4"/>
+    <mergeCell ref="IG4:IH4"/>
+    <mergeCell ref="HK4:HL4"/>
+    <mergeCell ref="HM4:HN4"/>
+    <mergeCell ref="HO4:HP4"/>
+    <mergeCell ref="HQ4:HR4"/>
+    <mergeCell ref="HS4:HT4"/>
+    <mergeCell ref="HU4:HV4"/>
+    <mergeCell ref="GY4:GZ4"/>
+    <mergeCell ref="HA4:HB4"/>
+    <mergeCell ref="HC4:HD4"/>
+    <mergeCell ref="HE4:HF4"/>
+    <mergeCell ref="HG4:HH4"/>
+    <mergeCell ref="HI4:HJ4"/>
+    <mergeCell ref="GM4:GN4"/>
+    <mergeCell ref="GO4:GP4"/>
+    <mergeCell ref="GQ4:GR4"/>
+    <mergeCell ref="GS4:GT4"/>
+    <mergeCell ref="GU4:GV4"/>
+    <mergeCell ref="GW4:GX4"/>
+    <mergeCell ref="GA4:GB4"/>
+    <mergeCell ref="GC4:GD4"/>
+    <mergeCell ref="GE4:GF4"/>
+    <mergeCell ref="GG4:GH4"/>
+    <mergeCell ref="GI4:GJ4"/>
+    <mergeCell ref="GK4:GL4"/>
+    <mergeCell ref="FO4:FP4"/>
+    <mergeCell ref="FQ4:FR4"/>
+    <mergeCell ref="FS4:FT4"/>
+    <mergeCell ref="FU4:FV4"/>
+    <mergeCell ref="FW4:FX4"/>
+    <mergeCell ref="FY4:FZ4"/>
+    <mergeCell ref="FC4:FD4"/>
+    <mergeCell ref="FE4:FF4"/>
+    <mergeCell ref="FG4:FH4"/>
+    <mergeCell ref="FI4:FJ4"/>
+    <mergeCell ref="FK4:FL4"/>
+    <mergeCell ref="FM4:FN4"/>
+    <mergeCell ref="EQ4:ER4"/>
+    <mergeCell ref="ES4:ET4"/>
+    <mergeCell ref="EU4:EV4"/>
+    <mergeCell ref="EW4:EX4"/>
+    <mergeCell ref="EY4:EZ4"/>
+    <mergeCell ref="FA4:FB4"/>
+    <mergeCell ref="EE4:EF4"/>
+    <mergeCell ref="EG4:EH4"/>
+    <mergeCell ref="EI4:EJ4"/>
+    <mergeCell ref="EK4:EL4"/>
+    <mergeCell ref="EM4:EN4"/>
+    <mergeCell ref="EO4:EP4"/>
+    <mergeCell ref="DS4:DT4"/>
+    <mergeCell ref="DU4:DV4"/>
+    <mergeCell ref="DW4:DX4"/>
+    <mergeCell ref="DY4:DZ4"/>
+    <mergeCell ref="EA4:EB4"/>
+    <mergeCell ref="EC4:ED4"/>
+    <mergeCell ref="DG4:DH4"/>
+    <mergeCell ref="DI4:DJ4"/>
+    <mergeCell ref="DK4:DL4"/>
+    <mergeCell ref="DM4:DN4"/>
+    <mergeCell ref="DO4:DP4"/>
+    <mergeCell ref="DQ4:DR4"/>
+    <mergeCell ref="CU4:CV4"/>
+    <mergeCell ref="CW4:CX4"/>
+    <mergeCell ref="CY4:CZ4"/>
+    <mergeCell ref="DA4:DB4"/>
+    <mergeCell ref="DC4:DD4"/>
+    <mergeCell ref="DE4:DF4"/>
+    <mergeCell ref="CI4:CJ4"/>
+    <mergeCell ref="CK4:CL4"/>
+    <mergeCell ref="CM4:CN4"/>
+    <mergeCell ref="CO4:CP4"/>
+    <mergeCell ref="CQ4:CR4"/>
+    <mergeCell ref="CS4:CT4"/>
+    <mergeCell ref="BW4:BX4"/>
+    <mergeCell ref="BY4:BZ4"/>
+    <mergeCell ref="CA4:CB4"/>
+    <mergeCell ref="CC4:CD4"/>
+    <mergeCell ref="CE4:CF4"/>
+    <mergeCell ref="CG4:CH4"/>
+    <mergeCell ref="BK4:BL4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BS4:BT4"/>
+    <mergeCell ref="BU4:BV4"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="BA4:BB4"/>
+    <mergeCell ref="BC4:BD4"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:IH5">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
@@ -5363,380 +5417,387 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A353A91-E0AE-4512-A35B-8B3D249941EA}">
-  <dimension ref="B2:EH13"/>
+  <dimension ref="B2:EH19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AY5" sqref="AY5:BK5"/>
+    <sheetView tabSelected="1" topLeftCell="BE1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BU16" sqref="BU16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="32.90625" customWidth="1"/>
-    <col min="3" max="122" width="3.6328125" customWidth="1"/>
+    <col min="3" max="69" width="3.6328125" customWidth="1"/>
+    <col min="70" max="70" width="12" customWidth="1"/>
+    <col min="71" max="71" width="3.6328125" customWidth="1"/>
+    <col min="72" max="72" width="4.6328125" customWidth="1"/>
+    <col min="73" max="73" width="15.7265625" customWidth="1"/>
+    <col min="74" max="74" width="3.6328125" customWidth="1"/>
+    <col min="75" max="75" width="7.1796875" customWidth="1"/>
+    <col min="76" max="122" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:138" x14ac:dyDescent="0.35">
-      <c r="B2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="21">
-        <v>0</v>
-      </c>
-      <c r="D2" s="22">
-        <v>1</v>
-      </c>
-      <c r="E2" s="22">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
         <v>2</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="7">
         <v>3</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="7">
         <v>4</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="7">
         <v>5</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="7">
         <v>6</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="7">
         <v>7</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="7">
         <v>8</v>
       </c>
-      <c r="L2" s="22">
+      <c r="L2" s="7">
         <v>9</v>
       </c>
-      <c r="M2" s="22">
+      <c r="M2" s="7">
         <v>10</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N2" s="7">
         <v>11</v>
       </c>
-      <c r="O2" s="22">
+      <c r="O2" s="7">
         <v>12</v>
       </c>
-      <c r="P2" s="22">
+      <c r="P2" s="7">
         <v>13</v>
       </c>
-      <c r="Q2" s="22">
+      <c r="Q2" s="7">
         <v>14</v>
       </c>
-      <c r="R2" s="22">
+      <c r="R2" s="7">
         <v>15</v>
       </c>
-      <c r="S2" s="22">
+      <c r="S2" s="7">
         <v>16</v>
       </c>
-      <c r="T2" s="22">
+      <c r="T2" s="7">
         <v>17</v>
       </c>
-      <c r="U2" s="22">
+      <c r="U2" s="7">
         <v>18</v>
       </c>
-      <c r="V2" s="22">
+      <c r="V2" s="7">
         <v>19</v>
       </c>
-      <c r="W2" s="22">
+      <c r="W2" s="7">
         <v>20</v>
       </c>
-      <c r="X2" s="22">
+      <c r="X2" s="7">
         <v>21</v>
       </c>
-      <c r="Y2" s="22">
+      <c r="Y2" s="7">
         <v>22</v>
       </c>
-      <c r="Z2" s="22">
+      <c r="Z2" s="7">
         <v>23</v>
       </c>
-      <c r="AA2" s="22">
+      <c r="AA2" s="7">
         <v>24</v>
       </c>
-      <c r="AB2" s="22">
+      <c r="AB2" s="7">
         <v>25</v>
       </c>
-      <c r="AC2" s="22">
+      <c r="AC2" s="7">
         <v>26</v>
       </c>
-      <c r="AD2" s="22">
+      <c r="AD2" s="7">
         <v>27</v>
       </c>
-      <c r="AE2" s="22">
+      <c r="AE2" s="7">
         <v>28</v>
       </c>
-      <c r="AF2" s="22">
+      <c r="AF2" s="7">
         <v>29</v>
       </c>
-      <c r="AG2" s="22">
+      <c r="AG2" s="7">
         <v>30</v>
       </c>
-      <c r="AH2" s="22">
+      <c r="AH2" s="7">
         <v>31</v>
       </c>
-      <c r="AI2" s="22">
+      <c r="AI2" s="7">
         <v>32</v>
       </c>
-      <c r="AJ2" s="22">
+      <c r="AJ2" s="7">
         <v>33</v>
       </c>
-      <c r="AK2" s="22">
+      <c r="AK2" s="7">
         <v>34</v>
       </c>
-      <c r="AL2" s="22">
+      <c r="AL2" s="7">
         <v>35</v>
       </c>
-      <c r="AM2" s="22">
+      <c r="AM2" s="7">
         <v>36</v>
       </c>
-      <c r="AN2" s="22">
+      <c r="AN2" s="7">
         <v>37</v>
       </c>
-      <c r="AO2" s="22">
+      <c r="AO2" s="7">
         <v>38</v>
       </c>
-      <c r="AP2" s="22">
+      <c r="AP2" s="7">
         <v>39</v>
       </c>
-      <c r="AQ2" s="22">
+      <c r="AQ2" s="7">
         <v>40</v>
       </c>
-      <c r="AR2" s="22">
+      <c r="AR2" s="7">
         <v>41</v>
       </c>
-      <c r="AS2" s="22">
+      <c r="AS2" s="7">
         <v>42</v>
       </c>
-      <c r="AT2" s="22">
+      <c r="AT2" s="7">
         <v>43</v>
       </c>
-      <c r="AU2" s="22">
+      <c r="AU2" s="7">
         <v>44</v>
       </c>
-      <c r="AV2" s="22">
+      <c r="AV2" s="7">
         <v>45</v>
       </c>
-      <c r="AW2" s="22">
+      <c r="AW2" s="7">
         <v>46</v>
       </c>
-      <c r="AX2" s="22">
+      <c r="AX2" s="7">
         <v>47</v>
       </c>
-      <c r="AY2" s="22">
+      <c r="AY2" s="7">
         <v>48</v>
       </c>
-      <c r="AZ2" s="22">
+      <c r="AZ2" s="7">
         <v>49</v>
       </c>
-      <c r="BA2" s="22">
+      <c r="BA2" s="7">
         <v>50</v>
       </c>
-      <c r="BB2" s="22">
+      <c r="BB2" s="7">
         <v>51</v>
       </c>
-      <c r="BC2" s="22">
+      <c r="BC2" s="7">
         <v>52</v>
       </c>
-      <c r="BD2" s="22">
+      <c r="BD2" s="7">
         <v>53</v>
       </c>
-      <c r="BE2" s="22">
+      <c r="BE2" s="7">
         <v>54</v>
       </c>
-      <c r="BF2" s="22">
+      <c r="BF2" s="7">
         <v>55</v>
       </c>
-      <c r="BG2" s="22">
+      <c r="BG2" s="7">
         <v>56</v>
       </c>
-      <c r="BH2" s="22">
+      <c r="BH2" s="7">
         <v>57</v>
       </c>
-      <c r="BI2" s="22">
+      <c r="BI2" s="7">
         <v>58</v>
       </c>
-      <c r="BJ2" s="22">
+      <c r="BJ2" s="7">
         <v>59</v>
       </c>
-      <c r="BK2" s="22">
+      <c r="BK2" s="7">
         <v>60</v>
       </c>
-      <c r="BL2" s="22">
+      <c r="BL2" s="7">
         <v>61</v>
       </c>
-      <c r="BM2" s="22">
+      <c r="BM2" s="7">
         <v>62</v>
       </c>
-      <c r="BN2" s="22">
+      <c r="BN2" s="7">
         <v>63</v>
       </c>
-      <c r="BO2" s="22">
+      <c r="BO2" s="7">
         <v>64</v>
       </c>
-      <c r="BP2" s="22">
+      <c r="BP2" s="7">
         <v>65</v>
       </c>
-      <c r="BQ2" s="22">
+      <c r="BQ2" s="7">
         <v>66</v>
       </c>
-      <c r="BR2" s="22">
+      <c r="BR2" s="7">
         <v>67</v>
       </c>
-      <c r="BS2" s="22">
+      <c r="BS2" s="7">
         <v>68</v>
       </c>
-      <c r="BT2" s="22">
+      <c r="BT2" s="7">
         <v>69</v>
       </c>
-      <c r="BU2" s="22">
+      <c r="BU2" s="7">
         <v>70</v>
       </c>
-      <c r="BV2" s="22">
+      <c r="BV2" s="7">
         <v>71</v>
       </c>
-      <c r="BW2" s="22">
+      <c r="BW2" s="7">
         <v>72</v>
       </c>
-      <c r="BX2" s="22">
+      <c r="BX2" s="7">
         <v>73</v>
       </c>
-      <c r="BY2" s="22">
+      <c r="BY2" s="7">
         <v>74</v>
       </c>
-      <c r="BZ2" s="22">
+      <c r="BZ2" s="7">
         <v>75</v>
       </c>
-      <c r="CA2" s="22">
+      <c r="CA2" s="7">
         <v>76</v>
       </c>
-      <c r="CB2" s="22">
+      <c r="CB2" s="7">
         <v>77</v>
       </c>
-      <c r="CC2" s="22">
+      <c r="CC2" s="7">
         <v>78</v>
       </c>
-      <c r="CD2" s="22">
+      <c r="CD2" s="7">
         <v>79</v>
       </c>
-      <c r="CE2" s="22">
+      <c r="CE2" s="7">
         <v>80</v>
       </c>
-      <c r="CF2" s="22">
+      <c r="CF2" s="7">
         <v>81</v>
       </c>
-      <c r="CG2" s="22">
+      <c r="CG2" s="7">
         <v>82</v>
       </c>
-      <c r="CH2" s="22">
+      <c r="CH2" s="7">
         <v>83</v>
       </c>
-      <c r="CI2" s="22">
+      <c r="CI2" s="7">
         <v>84</v>
       </c>
-      <c r="CJ2" s="22">
+      <c r="CJ2" s="7">
         <v>85</v>
       </c>
-      <c r="CK2" s="22">
+      <c r="CK2" s="7">
         <v>86</v>
       </c>
-      <c r="CL2" s="22">
+      <c r="CL2" s="7">
         <v>87</v>
       </c>
-      <c r="CM2" s="22">
+      <c r="CM2" s="7">
         <v>88</v>
       </c>
-      <c r="CN2" s="22">
+      <c r="CN2" s="7">
         <v>89</v>
       </c>
-      <c r="CO2" s="22">
+      <c r="CO2" s="7">
         <v>90</v>
       </c>
-      <c r="CP2" s="22">
+      <c r="CP2" s="7">
         <v>91</v>
       </c>
-      <c r="CQ2" s="22">
+      <c r="CQ2" s="7">
         <v>92</v>
       </c>
-      <c r="CR2" s="22">
+      <c r="CR2" s="7">
         <v>93</v>
       </c>
-      <c r="CS2" s="22">
+      <c r="CS2" s="7">
         <v>94</v>
       </c>
-      <c r="CT2" s="22">
+      <c r="CT2" s="7">
         <v>95</v>
       </c>
-      <c r="CU2" s="22">
+      <c r="CU2" s="7">
         <v>96</v>
       </c>
-      <c r="CV2" s="22">
+      <c r="CV2" s="7">
         <v>97</v>
       </c>
-      <c r="CW2" s="22">
+      <c r="CW2" s="7">
         <v>98</v>
       </c>
-      <c r="CX2" s="22">
+      <c r="CX2" s="7">
         <v>99</v>
       </c>
-      <c r="CY2" s="22">
+      <c r="CY2" s="7">
         <v>100</v>
       </c>
-      <c r="CZ2" s="22">
+      <c r="CZ2" s="7">
         <v>101</v>
       </c>
-      <c r="DA2" s="22">
+      <c r="DA2" s="7">
         <v>102</v>
       </c>
-      <c r="DB2" s="22">
+      <c r="DB2" s="7">
         <v>103</v>
       </c>
-      <c r="DC2" s="22">
+      <c r="DC2" s="7">
         <v>104</v>
       </c>
-      <c r="DD2" s="22">
+      <c r="DD2" s="7">
         <v>105</v>
       </c>
-      <c r="DE2" s="22">
+      <c r="DE2" s="7">
         <v>106</v>
       </c>
-      <c r="DF2" s="22">
+      <c r="DF2" s="7">
         <v>107</v>
       </c>
-      <c r="DG2" s="22">
+      <c r="DG2" s="7">
         <v>108</v>
       </c>
-      <c r="DH2" s="22">
+      <c r="DH2" s="7">
         <v>109</v>
       </c>
-      <c r="DI2" s="22">
+      <c r="DI2" s="7">
         <v>110</v>
       </c>
-      <c r="DJ2" s="22">
+      <c r="DJ2" s="7">
         <v>111</v>
       </c>
-      <c r="DK2" s="22">
+      <c r="DK2" s="7">
         <v>112</v>
       </c>
-      <c r="DL2" s="22">
+      <c r="DL2" s="7">
         <v>113</v>
       </c>
-      <c r="DM2" s="22">
+      <c r="DM2" s="7">
         <v>114</v>
       </c>
-      <c r="DN2" s="22">
+      <c r="DN2" s="7">
         <v>115</v>
       </c>
-      <c r="DO2" s="22">
+      <c r="DO2" s="7">
         <v>116</v>
       </c>
-      <c r="DP2" s="22">
+      <c r="DP2" s="7">
         <v>117</v>
       </c>
-      <c r="DQ2" s="23">
+      <c r="DQ2" s="8">
         <v>118</v>
       </c>
-      <c r="DR2" s="23">
+      <c r="DR2" s="8">
         <v>119</v>
       </c>
       <c r="DS2" s="1"/>
@@ -5757,1006 +5818,1006 @@
       <c r="EH2" s="1"/>
     </row>
     <row r="3" spans="2:138" x14ac:dyDescent="0.35">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="23">
-        <v>0</v>
-      </c>
-      <c r="L3" s="23">
-        <v>1</v>
-      </c>
-      <c r="M3" s="23">
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8">
         <v>2</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="8">
         <v>3</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="8">
         <v>4</v>
       </c>
-      <c r="P3" s="23">
+      <c r="P3" s="8">
         <v>5</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="Q3" s="8">
         <v>6</v>
       </c>
-      <c r="R3" s="23">
+      <c r="R3" s="8">
         <v>7</v>
       </c>
-      <c r="S3" s="23">
+      <c r="S3" s="8">
         <v>8</v>
       </c>
-      <c r="T3" s="23">
+      <c r="T3" s="8">
         <v>9</v>
       </c>
-      <c r="U3" s="23">
+      <c r="U3" s="8">
         <v>10</v>
       </c>
-      <c r="V3" s="23">
+      <c r="V3" s="8">
         <v>11</v>
       </c>
-      <c r="W3" s="23">
+      <c r="W3" s="8">
         <v>12</v>
       </c>
-      <c r="X3" s="23">
+      <c r="X3" s="8">
         <v>13</v>
       </c>
-      <c r="Y3" s="23">
+      <c r="Y3" s="8">
         <v>14</v>
       </c>
-      <c r="Z3" s="23">
+      <c r="Z3" s="8">
         <v>15</v>
       </c>
-      <c r="AA3" s="23">
+      <c r="AA3" s="8">
         <v>16</v>
       </c>
-      <c r="AB3" s="23">
+      <c r="AB3" s="8">
         <v>17</v>
       </c>
-      <c r="AC3" s="23">
+      <c r="AC3" s="8">
         <v>18</v>
       </c>
-      <c r="AD3" s="23">
+      <c r="AD3" s="8">
         <v>19</v>
       </c>
-      <c r="AE3" s="23">
+      <c r="AE3" s="8">
         <v>20</v>
       </c>
-      <c r="AF3" s="23">
+      <c r="AF3" s="8">
         <v>21</v>
       </c>
-      <c r="AG3" s="23">
+      <c r="AG3" s="8">
         <v>22</v>
       </c>
-      <c r="AH3" s="23">
+      <c r="AH3" s="8">
         <v>23</v>
       </c>
-      <c r="AI3" s="23">
+      <c r="AI3" s="8">
         <v>24</v>
       </c>
-      <c r="AJ3" s="23">
+      <c r="AJ3" s="8">
         <v>25</v>
       </c>
-      <c r="AK3" s="23">
+      <c r="AK3" s="8">
         <v>26</v>
       </c>
-      <c r="AL3" s="23">
+      <c r="AL3" s="8">
         <v>27</v>
       </c>
-      <c r="AM3" s="23">
+      <c r="AM3" s="8">
         <v>28</v>
       </c>
-      <c r="AN3" s="23">
+      <c r="AN3" s="8">
         <v>29</v>
       </c>
-      <c r="AO3" s="23">
+      <c r="AO3" s="8">
         <v>30</v>
       </c>
-      <c r="AP3" s="22">
+      <c r="AP3" s="7">
         <v>31</v>
       </c>
-      <c r="AQ3" s="23">
+      <c r="AQ3" s="8">
         <v>32</v>
       </c>
-      <c r="AR3" s="23">
+      <c r="AR3" s="8">
         <v>33</v>
       </c>
-      <c r="AS3" s="23">
+      <c r="AS3" s="8">
         <v>34</v>
       </c>
-      <c r="AT3" s="23">
+      <c r="AT3" s="8">
         <v>35</v>
       </c>
-      <c r="AU3" s="23">
+      <c r="AU3" s="8">
         <v>36</v>
       </c>
-      <c r="AV3" s="23">
+      <c r="AV3" s="8">
         <v>37</v>
       </c>
-      <c r="AW3" s="23">
+      <c r="AW3" s="8">
         <v>38</v>
       </c>
-      <c r="AX3" s="23">
+      <c r="AX3" s="8">
         <v>39</v>
       </c>
-      <c r="AY3" s="23">
+      <c r="AY3" s="8">
         <v>40</v>
       </c>
-      <c r="AZ3" s="23">
+      <c r="AZ3" s="8">
         <v>41</v>
       </c>
-      <c r="BA3" s="23">
+      <c r="BA3" s="8">
         <v>42</v>
       </c>
-      <c r="BB3" s="23">
+      <c r="BB3" s="8">
         <v>43</v>
       </c>
-      <c r="BC3" s="23">
+      <c r="BC3" s="8">
         <v>44</v>
       </c>
-      <c r="BD3" s="23">
+      <c r="BD3" s="8">
         <v>45</v>
       </c>
-      <c r="BE3" s="23">
+      <c r="BE3" s="8">
         <v>46</v>
       </c>
-      <c r="BF3" s="23">
+      <c r="BF3" s="8">
         <v>47</v>
       </c>
-      <c r="BG3" s="23">
+      <c r="BG3" s="8">
         <v>48</v>
       </c>
-      <c r="BH3" s="23">
+      <c r="BH3" s="8">
         <v>49</v>
       </c>
-      <c r="BI3" s="23">
+      <c r="BI3" s="8">
         <v>50</v>
       </c>
-      <c r="BJ3" s="23">
+      <c r="BJ3" s="8">
         <v>51</v>
       </c>
-      <c r="BK3" s="23">
+      <c r="BK3" s="8">
         <v>52</v>
       </c>
-      <c r="BL3" s="23">
+      <c r="BL3" s="8">
         <v>53</v>
       </c>
-      <c r="BM3" s="23">
+      <c r="BM3" s="8">
         <v>54</v>
       </c>
-      <c r="BN3" s="23">
+      <c r="BN3" s="8">
         <v>55</v>
       </c>
-      <c r="BO3" s="23">
+      <c r="BO3" s="8">
         <v>56</v>
       </c>
-      <c r="BP3" s="23">
+      <c r="BP3" s="8">
         <v>57</v>
       </c>
-      <c r="BQ3" s="23">
+      <c r="BQ3" s="8">
         <v>58</v>
       </c>
-      <c r="BR3" s="23">
+      <c r="BR3" s="8">
         <v>59</v>
       </c>
-      <c r="BS3" s="23">
+      <c r="BS3" s="8">
         <v>60</v>
       </c>
-      <c r="BT3" s="23">
+      <c r="BT3" s="8">
         <v>61</v>
       </c>
-      <c r="BU3" s="23">
+      <c r="BU3" s="8">
         <v>62</v>
       </c>
-      <c r="BV3" s="23">
+      <c r="BV3" s="8">
         <v>63</v>
       </c>
-      <c r="BW3" s="23">
+      <c r="BW3" s="8">
         <v>64</v>
       </c>
-      <c r="BX3" s="23">
+      <c r="BX3" s="8">
         <v>65</v>
       </c>
-      <c r="BY3" s="23">
+      <c r="BY3" s="8">
         <v>66</v>
       </c>
-      <c r="BZ3" s="23">
+      <c r="BZ3" s="8">
         <v>67</v>
       </c>
-      <c r="CA3" s="23">
+      <c r="CA3" s="8">
         <v>68</v>
       </c>
-      <c r="CB3" s="23">
+      <c r="CB3" s="8">
         <v>69</v>
       </c>
-      <c r="CC3" s="23">
+      <c r="CC3" s="8">
         <v>70</v>
       </c>
-      <c r="CD3" s="23">
+      <c r="CD3" s="8">
         <v>71</v>
       </c>
-      <c r="CE3" s="23">
+      <c r="CE3" s="8">
         <v>72</v>
       </c>
-      <c r="CF3" s="23">
+      <c r="CF3" s="8">
         <v>73</v>
       </c>
-      <c r="CG3" s="23">
+      <c r="CG3" s="8">
         <v>74</v>
       </c>
-      <c r="CH3" s="23">
+      <c r="CH3" s="8">
         <v>75</v>
       </c>
-      <c r="CI3" s="23">
+      <c r="CI3" s="8">
         <v>76</v>
       </c>
-      <c r="CJ3" s="23">
+      <c r="CJ3" s="8">
         <v>77</v>
       </c>
-      <c r="CK3" s="23">
+      <c r="CK3" s="8">
         <v>78</v>
       </c>
-      <c r="CL3" s="23">
+      <c r="CL3" s="8">
         <v>79</v>
       </c>
-      <c r="CM3" s="23">
+      <c r="CM3" s="8">
         <v>80</v>
       </c>
-      <c r="CN3" s="23">
+      <c r="CN3" s="8">
         <v>81</v>
       </c>
-      <c r="CO3" s="23">
+      <c r="CO3" s="8">
         <v>82</v>
       </c>
-      <c r="CP3" s="23">
+      <c r="CP3" s="8">
         <v>83</v>
       </c>
-      <c r="CQ3" s="23">
+      <c r="CQ3" s="8">
         <v>84</v>
       </c>
-      <c r="CR3" s="23">
+      <c r="CR3" s="8">
         <v>85</v>
       </c>
-      <c r="CS3" s="23">
+      <c r="CS3" s="8">
         <v>86</v>
       </c>
-      <c r="CT3" s="23">
+      <c r="CT3" s="8">
         <v>87</v>
       </c>
-      <c r="CU3" s="23">
+      <c r="CU3" s="8">
         <v>88</v>
       </c>
-      <c r="CV3" s="23">
+      <c r="CV3" s="8">
         <v>89</v>
       </c>
-      <c r="CW3" s="23">
+      <c r="CW3" s="8">
         <v>90</v>
       </c>
-      <c r="CX3" s="23">
+      <c r="CX3" s="8">
         <v>91</v>
       </c>
-      <c r="CY3" s="23">
+      <c r="CY3" s="8">
         <v>92</v>
       </c>
-      <c r="CZ3" s="23">
+      <c r="CZ3" s="8">
         <v>93</v>
       </c>
-      <c r="DA3" s="23">
+      <c r="DA3" s="8">
         <v>94</v>
       </c>
-      <c r="DB3" s="23">
+      <c r="DB3" s="8">
         <v>95</v>
       </c>
-      <c r="DC3" s="23">
+      <c r="DC3" s="8">
         <v>96</v>
       </c>
-      <c r="DD3" s="23">
+      <c r="DD3" s="8">
         <v>97</v>
       </c>
-      <c r="DE3" s="23">
+      <c r="DE3" s="8">
         <v>98</v>
       </c>
-      <c r="DF3" s="23">
+      <c r="DF3" s="8">
         <v>99</v>
       </c>
-      <c r="DG3" s="23">
+      <c r="DG3" s="8">
         <v>100</v>
       </c>
-      <c r="DH3" s="23">
+      <c r="DH3" s="8">
         <v>101</v>
       </c>
-      <c r="DI3" s="23">
+      <c r="DI3" s="8">
         <v>102</v>
       </c>
-      <c r="DJ3" s="23">
+      <c r="DJ3" s="8">
         <v>103</v>
       </c>
-      <c r="DK3" s="23">
+      <c r="DK3" s="8">
         <v>104</v>
       </c>
-      <c r="DL3" s="23">
+      <c r="DL3" s="8">
         <v>105</v>
       </c>
-      <c r="DM3" s="23">
+      <c r="DM3" s="8">
         <v>106</v>
       </c>
-      <c r="DN3" s="23">
+      <c r="DN3" s="8">
         <v>107</v>
       </c>
-      <c r="DO3" s="23">
+      <c r="DO3" s="8">
         <v>108</v>
       </c>
-      <c r="DP3" s="23">
+      <c r="DP3" s="8">
         <v>109</v>
       </c>
-      <c r="DQ3" s="23">
+      <c r="DQ3" s="8">
         <v>110</v>
       </c>
-      <c r="DR3" s="23">
+      <c r="DR3" s="8">
         <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:138" x14ac:dyDescent="0.35">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="17"/>
-      <c r="AM4" s="17"/>
-      <c r="AN4" s="17"/>
-      <c r="AO4" s="17"/>
-      <c r="AP4" s="18"/>
-      <c r="AQ4" s="24">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="24">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="24">
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="23"/>
+      <c r="AP4" s="24"/>
+      <c r="AQ4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="8">
         <v>2</v>
       </c>
-      <c r="AT4" s="24">
+      <c r="AT4" s="8">
         <v>3</v>
       </c>
-      <c r="AU4" s="24">
+      <c r="AU4" s="8">
         <v>4</v>
       </c>
-      <c r="AV4" s="24">
+      <c r="AV4" s="8">
         <v>5</v>
       </c>
-      <c r="AW4" s="24">
+      <c r="AW4" s="8">
         <v>6</v>
       </c>
-      <c r="AX4" s="24">
+      <c r="AX4" s="8">
         <v>7</v>
       </c>
-      <c r="AY4" s="24">
+      <c r="AY4" s="8">
         <v>8</v>
       </c>
-      <c r="AZ4" s="24">
+      <c r="AZ4" s="8">
         <v>9</v>
       </c>
-      <c r="BA4" s="24">
+      <c r="BA4" s="8">
         <v>10</v>
       </c>
-      <c r="BB4" s="24">
+      <c r="BB4" s="8">
         <v>11</v>
       </c>
-      <c r="BC4" s="24">
+      <c r="BC4" s="8">
         <v>12</v>
       </c>
-      <c r="BD4" s="24">
+      <c r="BD4" s="8">
         <v>13</v>
       </c>
-      <c r="BE4" s="24">
+      <c r="BE4" s="8">
         <v>14</v>
       </c>
-      <c r="BF4" s="24">
+      <c r="BF4" s="8">
         <v>15</v>
       </c>
-      <c r="BG4" s="24">
+      <c r="BG4" s="8">
         <v>16</v>
       </c>
-      <c r="BH4" s="24">
+      <c r="BH4" s="8">
         <v>17</v>
       </c>
-      <c r="BI4" s="24">
+      <c r="BI4" s="8">
         <v>18</v>
       </c>
-      <c r="BJ4" s="24">
+      <c r="BJ4" s="8">
         <v>19</v>
       </c>
-      <c r="BK4" s="24">
+      <c r="BK4" s="8">
         <v>20</v>
       </c>
-      <c r="BL4" s="24">
+      <c r="BL4" s="8">
         <v>21</v>
       </c>
-      <c r="BM4" s="24">
+      <c r="BM4" s="8">
         <v>22</v>
       </c>
-      <c r="BN4" s="24">
+      <c r="BN4" s="8">
         <v>23</v>
       </c>
-      <c r="BO4" s="24">
+      <c r="BO4" s="8">
         <v>24</v>
       </c>
-      <c r="BP4" s="24">
+      <c r="BP4" s="8">
         <v>25</v>
       </c>
-      <c r="BQ4" s="24">
+      <c r="BQ4" s="8">
         <v>26</v>
       </c>
-      <c r="BR4" s="24">
+      <c r="BR4" s="8">
         <v>27</v>
       </c>
-      <c r="BS4" s="24">
+      <c r="BS4" s="8">
         <v>28</v>
       </c>
-      <c r="BT4" s="24">
+      <c r="BT4" s="8">
         <v>29</v>
       </c>
-      <c r="BU4" s="24">
+      <c r="BU4" s="8">
         <v>30</v>
       </c>
-      <c r="BV4" s="24">
+      <c r="BV4" s="8">
         <v>31</v>
       </c>
-      <c r="BW4" s="24">
+      <c r="BW4" s="8">
         <v>32</v>
       </c>
-      <c r="BX4" s="24">
+      <c r="BX4" s="8">
         <v>33</v>
       </c>
-      <c r="BY4" s="24">
+      <c r="BY4" s="8">
         <v>34</v>
       </c>
-      <c r="BZ4" s="24">
+      <c r="BZ4" s="8">
         <v>35</v>
       </c>
-      <c r="CA4" s="24">
+      <c r="CA4" s="8">
         <v>36</v>
       </c>
-      <c r="CB4" s="24">
+      <c r="CB4" s="8">
         <v>37</v>
       </c>
-      <c r="CC4" s="24">
+      <c r="CC4" s="8">
         <v>38</v>
       </c>
-      <c r="CD4" s="24">
+      <c r="CD4" s="8">
         <v>39</v>
       </c>
-      <c r="CE4" s="24">
+      <c r="CE4" s="8">
         <v>40</v>
       </c>
-      <c r="CF4" s="24">
+      <c r="CF4" s="8">
         <v>41</v>
       </c>
-      <c r="CG4" s="24">
+      <c r="CG4" s="8">
         <v>42</v>
       </c>
-      <c r="CH4" s="24">
+      <c r="CH4" s="8">
         <v>43</v>
       </c>
-      <c r="CI4" s="24">
+      <c r="CI4" s="8">
         <v>44</v>
       </c>
-      <c r="CJ4" s="24">
+      <c r="CJ4" s="8">
         <v>45</v>
       </c>
-      <c r="CK4" s="24">
+      <c r="CK4" s="8">
         <v>46</v>
       </c>
-      <c r="CL4" s="24">
+      <c r="CL4" s="8">
         <v>47</v>
       </c>
-      <c r="CM4" s="24">
+      <c r="CM4" s="8">
         <v>48</v>
       </c>
-      <c r="CN4" s="24">
+      <c r="CN4" s="8">
         <v>49</v>
       </c>
-      <c r="CO4" s="24">
+      <c r="CO4" s="8">
         <v>50</v>
       </c>
-      <c r="CP4" s="24">
+      <c r="CP4" s="8">
         <v>51</v>
       </c>
-      <c r="CQ4" s="24">
+      <c r="CQ4" s="8">
         <v>52</v>
       </c>
-      <c r="CR4" s="24">
+      <c r="CR4" s="8">
         <v>53</v>
       </c>
-      <c r="CS4" s="24">
+      <c r="CS4" s="8">
         <v>54</v>
       </c>
-      <c r="CT4" s="24">
+      <c r="CT4" s="8">
         <v>55</v>
       </c>
-      <c r="CU4" s="24">
+      <c r="CU4" s="8">
         <v>56</v>
       </c>
-      <c r="CV4" s="24">
+      <c r="CV4" s="8">
         <v>57</v>
       </c>
-      <c r="CW4" s="24">
+      <c r="CW4" s="8">
         <v>58</v>
       </c>
-      <c r="CX4" s="24">
+      <c r="CX4" s="8">
         <v>59</v>
       </c>
-      <c r="CY4" s="24">
+      <c r="CY4" s="8">
         <v>60</v>
       </c>
-      <c r="CZ4" s="24">
+      <c r="CZ4" s="8">
         <v>61</v>
       </c>
-      <c r="DA4" s="24">
+      <c r="DA4" s="8">
         <v>62</v>
       </c>
-      <c r="DB4" s="24">
+      <c r="DB4" s="8">
         <v>63</v>
       </c>
-      <c r="DC4" s="24">
+      <c r="DC4" s="8">
         <v>64</v>
       </c>
-      <c r="DD4" s="24">
+      <c r="DD4" s="8">
         <v>65</v>
       </c>
-      <c r="DE4" s="24">
+      <c r="DE4" s="8">
         <v>66</v>
       </c>
-      <c r="DF4" s="24">
+      <c r="DF4" s="8">
         <v>67</v>
       </c>
-      <c r="DG4" s="24">
+      <c r="DG4" s="8">
         <v>68</v>
       </c>
-      <c r="DH4" s="24">
+      <c r="DH4" s="8">
         <v>69</v>
       </c>
-      <c r="DI4" s="24">
+      <c r="DI4" s="8">
         <v>70</v>
       </c>
-      <c r="DJ4" s="24">
+      <c r="DJ4" s="8">
         <v>71</v>
       </c>
-      <c r="DK4" s="24">
+      <c r="DK4" s="8">
         <v>72</v>
       </c>
-      <c r="DL4" s="24">
+      <c r="DL4" s="8">
         <v>73</v>
       </c>
-      <c r="DM4" s="24">
+      <c r="DM4" s="8">
         <v>74</v>
       </c>
-      <c r="DN4" s="24">
+      <c r="DN4" s="8">
         <v>75</v>
       </c>
-      <c r="DO4" s="24">
+      <c r="DO4" s="8">
         <v>76</v>
       </c>
-      <c r="DP4" s="24">
+      <c r="DP4" s="8">
         <v>77</v>
       </c>
-      <c r="DQ4" s="24">
+      <c r="DQ4" s="8">
         <v>78</v>
       </c>
-      <c r="DR4" s="24">
+      <c r="DR4" s="8">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="2:138" x14ac:dyDescent="0.35">
-      <c r="B5" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" s="11">
-        <v>0</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0</v>
-      </c>
-      <c r="K5" s="11">
-        <v>1</v>
-      </c>
-      <c r="L5" s="11">
-        <v>0</v>
-      </c>
-      <c r="M5" s="11">
-        <v>0</v>
-      </c>
-      <c r="N5" s="11">
-        <v>0</v>
-      </c>
-      <c r="O5" s="11">
-        <v>1</v>
-      </c>
-      <c r="P5" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>0</v>
-      </c>
-      <c r="R5" s="11">
-        <v>1</v>
-      </c>
-      <c r="S5" s="11">
-        <v>0</v>
-      </c>
-      <c r="T5" s="11">
-        <v>1</v>
-      </c>
-      <c r="U5" s="11">
-        <v>0</v>
-      </c>
-      <c r="V5" s="11">
-        <v>0</v>
-      </c>
-      <c r="W5" s="11">
-        <v>0</v>
-      </c>
-      <c r="X5" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="11">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="11">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="11">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="11">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="11">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="11">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="11">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="11">
-        <v>1</v>
-      </c>
-      <c r="AM5" s="11">
-        <v>1</v>
-      </c>
-      <c r="AN5" s="11">
-        <v>1</v>
-      </c>
-      <c r="AO5" s="11">
-        <v>1</v>
-      </c>
-      <c r="AP5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="11">
-        <v>1</v>
-      </c>
-      <c r="AS5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="11">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="11">
-        <v>1</v>
-      </c>
-      <c r="AV5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="11">
-        <v>1</v>
-      </c>
-      <c r="AZ5" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="11">
-        <v>1</v>
-      </c>
-      <c r="BB5" s="11">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="11">
-        <v>1</v>
-      </c>
-      <c r="BD5" s="11">
-        <v>1</v>
-      </c>
-      <c r="BE5" s="11">
-        <v>1</v>
-      </c>
-      <c r="BF5" s="11">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="11">
-        <v>1</v>
-      </c>
-      <c r="BH5" s="11">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="11">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="11">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="11">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="11">
-        <v>1</v>
-      </c>
-      <c r="BM5" s="11">
-        <v>1</v>
-      </c>
-      <c r="BN5" s="11">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="11">
-        <v>0</v>
-      </c>
-      <c r="BP5" s="11">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="11">
-        <v>1</v>
-      </c>
-      <c r="BR5" s="11">
-        <v>1</v>
-      </c>
-      <c r="BS5" s="11">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="11">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="11">
-        <v>1</v>
-      </c>
-      <c r="BV5" s="11">
-        <v>1</v>
-      </c>
-      <c r="BW5" s="11">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="11">
-        <v>1</v>
-      </c>
-      <c r="BY5" s="11">
-        <v>1</v>
-      </c>
-      <c r="BZ5" s="11">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="11">
-        <v>0</v>
-      </c>
-      <c r="CB5" s="11">
-        <v>1</v>
-      </c>
-      <c r="CC5" s="11">
-        <v>1</v>
-      </c>
-      <c r="CD5" s="11">
-        <v>1</v>
-      </c>
-      <c r="CE5" s="11">
-        <v>0</v>
-      </c>
-      <c r="CF5" s="11">
-        <v>0</v>
-      </c>
-      <c r="CG5" s="11">
-        <v>0</v>
-      </c>
-      <c r="CH5" s="11">
-        <v>1</v>
-      </c>
-      <c r="CI5" s="11">
-        <v>1</v>
-      </c>
-      <c r="CJ5" s="11">
-        <v>0</v>
-      </c>
-      <c r="CK5" s="11">
-        <v>1</v>
-      </c>
-      <c r="CL5" s="11">
-        <v>1</v>
-      </c>
-      <c r="CM5" s="11">
-        <v>1</v>
-      </c>
-      <c r="CN5" s="11">
-        <v>1</v>
-      </c>
-      <c r="CO5" s="11">
-        <v>0</v>
-      </c>
-      <c r="CP5" s="11">
-        <v>0</v>
-      </c>
-      <c r="CQ5" s="11">
-        <v>1</v>
-      </c>
-      <c r="CR5" s="11">
-        <v>0</v>
-      </c>
-      <c r="CS5" s="11">
-        <v>1</v>
-      </c>
-      <c r="CT5" s="11">
-        <v>1</v>
-      </c>
-      <c r="CU5" s="11">
-        <v>1</v>
-      </c>
-      <c r="CV5" s="11">
-        <v>0</v>
-      </c>
-      <c r="CW5" s="11">
-        <v>0</v>
-      </c>
-      <c r="CX5" s="11">
-        <v>0</v>
-      </c>
-      <c r="CY5" s="11">
-        <v>1</v>
-      </c>
-      <c r="CZ5" s="11">
-        <v>0</v>
-      </c>
-      <c r="DA5" s="11">
-        <v>0</v>
-      </c>
-      <c r="DB5" s="11">
-        <v>1</v>
-      </c>
-      <c r="DC5" s="11">
-        <v>0</v>
-      </c>
-      <c r="DD5" s="11">
-        <v>1</v>
-      </c>
-      <c r="DE5" s="11">
-        <v>1</v>
-      </c>
-      <c r="DF5" s="11">
-        <v>1</v>
-      </c>
-      <c r="DG5" s="11">
-        <v>0</v>
-      </c>
-      <c r="DH5" s="11">
-        <v>0</v>
-      </c>
-      <c r="DI5" s="11">
-        <v>1</v>
-      </c>
-      <c r="DJ5" s="11">
-        <v>0</v>
-      </c>
-      <c r="DK5" s="11">
-        <v>0</v>
-      </c>
-      <c r="DL5" s="11">
-        <v>0</v>
-      </c>
-      <c r="DM5" s="11">
-        <v>1</v>
-      </c>
-      <c r="DN5" s="11">
-        <v>1</v>
-      </c>
-      <c r="DO5" s="11">
-        <v>1</v>
-      </c>
-      <c r="DP5" s="11">
-        <v>0</v>
-      </c>
-      <c r="DQ5" s="11">
-        <v>0</v>
-      </c>
-      <c r="DR5" s="11">
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>1</v>
+      </c>
+      <c r="S5" s="3">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3">
+        <v>1</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0</v>
+      </c>
+      <c r="X5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BD5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BN5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BP5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BQ5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BR5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BT5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BU5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BW5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BX5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BZ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="3">
+        <v>1</v>
+      </c>
+      <c r="CC5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="3">
+        <v>1</v>
+      </c>
+      <c r="CE5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="3">
+        <v>1</v>
+      </c>
+      <c r="CG5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="3">
+        <v>1</v>
+      </c>
+      <c r="CK5" s="3">
+        <v>1</v>
+      </c>
+      <c r="CL5" s="3">
+        <v>1</v>
+      </c>
+      <c r="CM5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="3">
+        <v>1</v>
+      </c>
+      <c r="CO5" s="3">
+        <v>1</v>
+      </c>
+      <c r="CP5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS5" s="3">
+        <v>1</v>
+      </c>
+      <c r="CT5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU5" s="3">
+        <v>1</v>
+      </c>
+      <c r="CV5" s="3">
+        <v>1</v>
+      </c>
+      <c r="CW5" s="3">
+        <v>1</v>
+      </c>
+      <c r="CX5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY5" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DC5" s="3">
+        <v>1</v>
+      </c>
+      <c r="DD5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE5" s="3">
+        <v>1</v>
+      </c>
+      <c r="DF5" s="3">
+        <v>1</v>
+      </c>
+      <c r="DG5" s="3">
+        <v>1</v>
+      </c>
+      <c r="DH5" s="3">
+        <v>1</v>
+      </c>
+      <c r="DI5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DK5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DN5" s="3">
+        <v>1</v>
+      </c>
+      <c r="DO5" s="3">
+        <v>1</v>
+      </c>
+      <c r="DP5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DQ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DR5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:138" x14ac:dyDescent="0.35">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="25" t="s">
@@ -6814,659 +6875,676 @@
       <c r="AS6" s="25"/>
       <c r="AT6" s="25"/>
       <c r="AU6" s="25"/>
-      <c r="AV6" s="26"/>
-      <c r="AW6" s="26"/>
-      <c r="AX6" s="26"/>
-      <c r="AY6" s="27"/>
-      <c r="AZ6" s="27"/>
-      <c r="BA6" s="27"/>
-      <c r="BB6" s="27"/>
-      <c r="BC6" s="27"/>
-      <c r="BD6" s="27"/>
-      <c r="BE6" s="27"/>
-      <c r="BF6" s="27"/>
-      <c r="BG6" s="27"/>
-      <c r="BH6" s="27"/>
-      <c r="BI6" s="27"/>
-      <c r="BJ6" s="27"/>
-      <c r="BK6" s="27"/>
-      <c r="BL6" s="27"/>
-      <c r="BM6" s="27"/>
-      <c r="BN6" s="27"/>
-      <c r="BO6" s="27"/>
-      <c r="BP6" s="27"/>
-      <c r="BQ6" s="27"/>
-      <c r="BR6" s="27"/>
-      <c r="BS6" s="27"/>
-      <c r="BT6" s="27"/>
-      <c r="BU6" s="27"/>
-      <c r="BV6" s="27"/>
-      <c r="BW6" s="27"/>
-      <c r="BX6" s="27"/>
-      <c r="BY6" s="27"/>
-      <c r="BZ6" s="27"/>
-      <c r="CA6" s="27"/>
-      <c r="CB6" s="27"/>
-      <c r="CC6" s="27"/>
-      <c r="CD6" s="27"/>
-      <c r="CE6" s="27"/>
-      <c r="CF6" s="27"/>
-      <c r="CG6" s="27"/>
-      <c r="CH6" s="27"/>
-      <c r="CI6" s="27"/>
-      <c r="CJ6" s="27"/>
-      <c r="CK6" s="27"/>
-      <c r="CL6" s="27"/>
-      <c r="CM6" s="27"/>
-      <c r="CN6" s="27"/>
-      <c r="CO6" s="27"/>
-      <c r="CP6" s="27"/>
-      <c r="CQ6" s="27"/>
-      <c r="CR6" s="27"/>
-      <c r="CS6" s="27"/>
-      <c r="CT6" s="27"/>
-      <c r="CU6" s="27"/>
-      <c r="CV6" s="27"/>
-      <c r="CW6" s="27"/>
-      <c r="CX6" s="27"/>
-      <c r="CY6" s="27"/>
-      <c r="CZ6" s="27"/>
-      <c r="DA6" s="27"/>
-      <c r="DB6" s="27"/>
-      <c r="DC6" s="27"/>
-      <c r="DD6" s="27"/>
-      <c r="DE6" s="27"/>
-      <c r="DF6" s="27"/>
-      <c r="DG6" s="27"/>
-      <c r="DH6" s="27"/>
-      <c r="DI6" s="27"/>
-      <c r="DJ6" s="27"/>
-      <c r="DK6" s="27"/>
-      <c r="DL6" s="27"/>
-      <c r="DM6" s="27"/>
-      <c r="DN6" s="27"/>
-      <c r="DO6" s="27"/>
-      <c r="DP6" s="27"/>
-      <c r="DQ6" s="27"/>
-      <c r="DR6" s="27"/>
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="9"/>
+      <c r="AX6" s="9"/>
+      <c r="AY6" s="9"/>
+      <c r="AZ6" s="9"/>
+      <c r="BA6" s="9"/>
+      <c r="BB6" s="9"/>
+      <c r="BC6" s="9"/>
+      <c r="BD6" s="9"/>
+      <c r="BE6" s="9"/>
+      <c r="BF6" s="9"/>
+      <c r="BG6" s="9"/>
+      <c r="BH6" s="9"/>
+      <c r="BI6" s="9"/>
+      <c r="BJ6" s="9"/>
+      <c r="BK6" s="9"/>
+      <c r="BL6" s="9"/>
+      <c r="BM6" s="9"/>
+      <c r="BN6" s="9"/>
+      <c r="BO6" s="9"/>
+      <c r="BP6" s="9"/>
+      <c r="BQ6" s="9"/>
+      <c r="BR6" s="9"/>
+      <c r="BS6" s="9"/>
+      <c r="BT6" s="9"/>
+      <c r="BU6" s="9"/>
+      <c r="BV6" s="9"/>
+      <c r="BW6" s="9"/>
+      <c r="BX6" s="9"/>
+      <c r="BY6" s="9"/>
+      <c r="BZ6" s="9"/>
+      <c r="CA6" s="9"/>
+      <c r="CB6" s="9"/>
+      <c r="CC6" s="9"/>
+      <c r="CD6" s="9"/>
+      <c r="CE6" s="9"/>
+      <c r="CF6" s="9"/>
+      <c r="CG6" s="9"/>
+      <c r="CH6" s="9"/>
+      <c r="CI6" s="9"/>
+      <c r="CJ6" s="9"/>
+      <c r="CK6" s="9"/>
+      <c r="CL6" s="9"/>
+      <c r="CM6" s="9"/>
+      <c r="CN6" s="9"/>
+      <c r="CO6" s="9"/>
+      <c r="CP6" s="9"/>
+      <c r="CQ6" s="9"/>
+      <c r="CR6" s="9"/>
+      <c r="CS6" s="9"/>
+      <c r="CT6" s="9"/>
+      <c r="CU6" s="9"/>
+      <c r="CV6" s="9"/>
+      <c r="CW6" s="9"/>
+      <c r="CX6" s="9"/>
+      <c r="CY6" s="9"/>
+      <c r="CZ6" s="9"/>
+      <c r="DA6" s="9"/>
+      <c r="DB6" s="9"/>
+      <c r="DC6" s="9"/>
+      <c r="DD6" s="9"/>
+      <c r="DE6" s="9"/>
+      <c r="DF6" s="9"/>
+      <c r="DG6" s="9"/>
+      <c r="DH6" s="9"/>
+      <c r="DI6" s="9"/>
+      <c r="DJ6" s="9"/>
+      <c r="DK6" s="9"/>
+      <c r="DL6" s="9"/>
+      <c r="DM6" s="9"/>
+      <c r="DN6" s="9"/>
+      <c r="DO6" s="9"/>
+      <c r="DP6" s="9"/>
+      <c r="DQ6" s="9"/>
+      <c r="DR6" s="9"/>
     </row>
     <row r="7" spans="2:138" x14ac:dyDescent="0.35">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="28" t="str">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="18" t="str">
         <f>_xlfn.CONCAT(K5:O5)</f>
         <v>10001</v>
       </c>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28" t="str">
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18" t="str">
         <f>_xlfn.CONCAT(P5:R5)</f>
         <v>101</v>
       </c>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28" t="str">
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18" t="str">
         <f>_xlfn.CONCAT(S5:X5)</f>
-        <v>010001</v>
-      </c>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28" t="str">
+        <v>101001</v>
+      </c>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18" t="str">
         <f>_xlfn.CONCAT(Y5:AD5)</f>
-        <v>110001</v>
-      </c>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28" t="str">
+        <v>000010</v>
+      </c>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18" t="str">
         <f>_xlfn.CONCAT(AE5:AJ5)</f>
-        <v>110110</v>
-      </c>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="28"/>
-      <c r="AK7" s="28" t="str">
+        <v>011111</v>
+      </c>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18" t="str">
         <f>_xlfn.CONCAT(AK5:AP5)</f>
-        <v>111110</v>
-      </c>
-      <c r="AL7" s="28"/>
-      <c r="AM7" s="28"/>
-      <c r="AN7" s="28"/>
-      <c r="AO7" s="28"/>
-      <c r="AP7" s="28"/>
-      <c r="AQ7" s="28" t="str">
+        <v>101011</v>
+      </c>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18" t="str">
         <f>_xlfn.CONCAT(AQ5:AU5)</f>
         <v>01011</v>
       </c>
-      <c r="AR7" s="28"/>
-      <c r="AS7" s="28"/>
-      <c r="AT7" s="28"/>
-      <c r="AU7" s="28"/>
-      <c r="AV7" s="29"/>
-      <c r="AW7" s="29"/>
-      <c r="AX7" s="29"/>
-      <c r="AY7" s="24"/>
-      <c r="AZ7" s="24"/>
-      <c r="BA7" s="24"/>
-      <c r="BB7" s="24"/>
-      <c r="BC7" s="24"/>
-      <c r="BD7" s="24"/>
-      <c r="BE7" s="24"/>
-      <c r="BF7" s="24"/>
-      <c r="BG7" s="24"/>
-      <c r="BH7" s="24"/>
-      <c r="BI7" s="24"/>
-      <c r="BJ7" s="24"/>
-      <c r="BK7" s="24"/>
-      <c r="BL7" s="24"/>
-      <c r="BM7" s="24"/>
-      <c r="BN7" s="24"/>
-      <c r="BO7" s="24"/>
-      <c r="BP7" s="24"/>
-      <c r="BQ7" s="24"/>
-      <c r="BR7" s="24"/>
-      <c r="BS7" s="24"/>
-      <c r="BT7" s="24"/>
-      <c r="BU7" s="24"/>
-      <c r="BV7" s="24"/>
-      <c r="BW7" s="24"/>
-      <c r="BX7" s="24"/>
-      <c r="BY7" s="24"/>
-      <c r="BZ7" s="24"/>
-      <c r="CA7" s="24"/>
-      <c r="CB7" s="24"/>
-      <c r="CC7" s="24"/>
-      <c r="CD7" s="24"/>
-      <c r="CE7" s="24"/>
-      <c r="CF7" s="24"/>
-      <c r="CG7" s="24"/>
-      <c r="CH7" s="24"/>
-      <c r="CI7" s="24"/>
-      <c r="CJ7" s="24"/>
-      <c r="CK7" s="24"/>
-      <c r="CL7" s="24"/>
-      <c r="CM7" s="24"/>
-      <c r="CN7" s="24"/>
-      <c r="CO7" s="24"/>
-      <c r="CP7" s="24"/>
-      <c r="CQ7" s="24"/>
-      <c r="CR7" s="24"/>
-      <c r="CS7" s="24"/>
-      <c r="CT7" s="24"/>
-      <c r="CU7" s="24"/>
-      <c r="CV7" s="24"/>
-      <c r="CW7" s="24"/>
-      <c r="CX7" s="24"/>
-      <c r="CY7" s="24"/>
-      <c r="CZ7" s="24"/>
-      <c r="DA7" s="24"/>
-      <c r="DB7" s="24"/>
-      <c r="DC7" s="24"/>
-      <c r="DD7" s="24"/>
-      <c r="DE7" s="24"/>
-      <c r="DF7" s="24"/>
-      <c r="DG7" s="24"/>
-      <c r="DH7" s="24"/>
-      <c r="DI7" s="24"/>
-      <c r="DJ7" s="24"/>
-      <c r="DK7" s="24"/>
-      <c r="DL7" s="24"/>
-      <c r="DM7" s="24"/>
-      <c r="DN7" s="24"/>
-      <c r="DO7" s="24"/>
-      <c r="DP7" s="24"/>
-      <c r="DQ7" s="24"/>
-      <c r="DR7" s="24"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="10"/>
+      <c r="AX7" s="10"/>
+      <c r="AY7" s="8"/>
+      <c r="AZ7" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA7" s="28"/>
+      <c r="BB7" s="28"/>
+      <c r="BC7" s="28"/>
+      <c r="BD7" s="28"/>
+      <c r="BE7" s="28"/>
+      <c r="BF7" s="28"/>
+      <c r="BG7" s="28"/>
+      <c r="BH7" s="28"/>
+      <c r="BI7" s="28"/>
+      <c r="BJ7" s="29"/>
+      <c r="BK7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="BL7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="BM7" s="27" t="str">
+        <f>_xlfn.CONCAT(BM5:BU5)</f>
+        <v>101110110</v>
+      </c>
+      <c r="BN7" s="28"/>
+      <c r="BO7" s="28"/>
+      <c r="BP7" s="28"/>
+      <c r="BQ7" s="28"/>
+      <c r="BR7" s="28"/>
+      <c r="BS7" s="28"/>
+      <c r="BT7" s="28"/>
+      <c r="BU7" s="29"/>
+      <c r="BV7" s="27" t="str">
+        <f>_xlfn.CONCAT(BV5:CC5)</f>
+        <v>11010010</v>
+      </c>
+      <c r="BW7" s="28"/>
+      <c r="BX7" s="28"/>
+      <c r="BY7" s="28"/>
+      <c r="BZ7" s="28"/>
+      <c r="CA7" s="28"/>
+      <c r="CB7" s="28"/>
+      <c r="CC7" s="29"/>
+      <c r="CD7" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="CE7" s="28"/>
+      <c r="CF7" s="28"/>
+      <c r="CG7" s="28"/>
+      <c r="CH7" s="28"/>
+      <c r="CI7" s="28"/>
+      <c r="CJ7" s="28"/>
+      <c r="CK7" s="28"/>
+      <c r="CL7" s="28"/>
+      <c r="CM7" s="28"/>
+      <c r="CN7" s="28"/>
+      <c r="CO7" s="28"/>
+      <c r="CP7" s="28"/>
+      <c r="CQ7" s="28"/>
+      <c r="CR7" s="28"/>
+      <c r="CS7" s="28"/>
+      <c r="CT7" s="29"/>
+      <c r="CU7" s="8"/>
+      <c r="CV7" s="8"/>
+      <c r="CW7" s="8"/>
+      <c r="CX7" s="8"/>
+      <c r="CY7" s="8"/>
+      <c r="CZ7" s="8"/>
+      <c r="DA7" s="8"/>
+      <c r="DB7" s="8"/>
+      <c r="DC7" s="8"/>
+      <c r="DD7" s="8"/>
+      <c r="DE7" s="8"/>
+      <c r="DF7" s="8"/>
+      <c r="DG7" s="8"/>
+      <c r="DH7" s="8"/>
+      <c r="DI7" s="8"/>
+      <c r="DJ7" s="8"/>
+      <c r="DK7" s="8"/>
+      <c r="DL7" s="8"/>
+      <c r="DM7" s="8"/>
+      <c r="DN7" s="8"/>
+      <c r="DO7" s="8"/>
+      <c r="DP7" s="8"/>
+      <c r="DQ7" s="8"/>
+      <c r="DR7" s="8"/>
     </row>
     <row r="8" spans="2:138" x14ac:dyDescent="0.35">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="28" t="str">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="18" t="str">
         <f>BIN2HEX(K7)</f>
         <v>11</v>
       </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28" t="str">
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18" t="str">
         <f>BIN2HEX(P7)</f>
         <v>5</v>
       </c>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28" t="str">
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18" t="str">
         <f>BIN2HEX(S7)</f>
-        <v>11</v>
-      </c>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28" t="str">
+        <v>29</v>
+      </c>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18" t="str">
         <f t="shared" ref="Y8" si="0">BIN2HEX(Y7)</f>
-        <v>31</v>
-      </c>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28" t="str">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18" t="str">
         <f t="shared" ref="AE8" si="1">BIN2HEX(AE7)</f>
-        <v>36</v>
-      </c>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="28"/>
-      <c r="AK8" s="28" t="str">
+        <v>1F</v>
+      </c>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="18" t="str">
         <f t="shared" ref="AK8" si="2">BIN2HEX(AK7)</f>
-        <v>3E</v>
-      </c>
-      <c r="AL8" s="28"/>
-      <c r="AM8" s="28"/>
-      <c r="AN8" s="28"/>
-      <c r="AO8" s="28"/>
-      <c r="AP8" s="28"/>
-      <c r="AQ8" s="28" t="str">
+        <v>2B</v>
+      </c>
+      <c r="AL8" s="18"/>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="18"/>
+      <c r="AO8" s="18"/>
+      <c r="AP8" s="18"/>
+      <c r="AQ8" s="18" t="str">
         <f>BIN2HEX(AQ7)</f>
         <v>B</v>
       </c>
-      <c r="AR8" s="28"/>
-      <c r="AS8" s="28"/>
-      <c r="AT8" s="28"/>
-      <c r="AU8" s="28"/>
-      <c r="AV8" s="23"/>
-      <c r="AW8" s="23"/>
-      <c r="AX8" s="23"/>
-      <c r="AY8" s="24"/>
-      <c r="AZ8" s="24"/>
-      <c r="BA8" s="24"/>
-      <c r="BB8" s="24"/>
-      <c r="BC8" s="24"/>
-      <c r="BD8" s="24"/>
-      <c r="BE8" s="24"/>
-      <c r="BF8" s="24"/>
-      <c r="BG8" s="24"/>
-      <c r="BH8" s="24"/>
-      <c r="BI8" s="24"/>
-      <c r="BJ8" s="24"/>
-      <c r="BK8" s="24"/>
-      <c r="BL8" s="24"/>
-      <c r="BM8" s="24"/>
-      <c r="BN8" s="24"/>
-      <c r="BO8" s="24"/>
-      <c r="BP8" s="24"/>
-      <c r="BQ8" s="24"/>
-      <c r="BR8" s="24"/>
-      <c r="BS8" s="24"/>
-      <c r="BT8" s="24"/>
-      <c r="BU8" s="24"/>
-      <c r="BV8" s="24"/>
-      <c r="BW8" s="24"/>
-      <c r="BX8" s="24"/>
-      <c r="BY8" s="24"/>
-      <c r="BZ8" s="24"/>
-      <c r="CA8" s="24"/>
-      <c r="CB8" s="24"/>
-      <c r="CC8" s="24"/>
-      <c r="CD8" s="24"/>
-      <c r="CE8" s="24"/>
-      <c r="CF8" s="24"/>
-      <c r="CG8" s="24"/>
-      <c r="CH8" s="24"/>
-      <c r="CI8" s="24"/>
-      <c r="CJ8" s="24"/>
-      <c r="CK8" s="24"/>
-      <c r="CL8" s="24"/>
-      <c r="CM8" s="24"/>
-      <c r="CN8" s="24"/>
-      <c r="CO8" s="24"/>
-      <c r="CP8" s="24"/>
-      <c r="CQ8" s="24"/>
-      <c r="CR8" s="24"/>
-      <c r="CS8" s="24"/>
-      <c r="CT8" s="24"/>
-      <c r="CU8" s="24"/>
-      <c r="CV8" s="24"/>
-      <c r="CW8" s="24"/>
-      <c r="CX8" s="24"/>
-      <c r="CY8" s="24"/>
-      <c r="CZ8" s="24"/>
-      <c r="DA8" s="24"/>
-      <c r="DB8" s="24"/>
-      <c r="DC8" s="24"/>
-      <c r="DD8" s="24"/>
-      <c r="DE8" s="24"/>
-      <c r="DF8" s="24"/>
-      <c r="DG8" s="24"/>
-      <c r="DH8" s="24"/>
-      <c r="DI8" s="24"/>
-      <c r="DJ8" s="24"/>
-      <c r="DK8" s="24"/>
-      <c r="DL8" s="24"/>
-      <c r="DM8" s="24"/>
-      <c r="DN8" s="24"/>
-      <c r="DO8" s="24"/>
-      <c r="DP8" s="24"/>
-      <c r="DQ8" s="24"/>
-      <c r="DR8" s="24"/>
+      <c r="AR8" s="18"/>
+      <c r="AS8" s="18"/>
+      <c r="AT8" s="18"/>
+      <c r="AU8" s="18"/>
+      <c r="AV8" s="8"/>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="8"/>
+      <c r="AY8" s="8"/>
+      <c r="AZ8" s="8"/>
+      <c r="BA8" s="8"/>
+      <c r="BB8" s="8"/>
+      <c r="BC8" s="8"/>
+      <c r="BD8" s="8"/>
+      <c r="BE8" s="8"/>
+      <c r="BF8" s="8"/>
+      <c r="BG8" s="8"/>
+      <c r="BH8" s="8"/>
+      <c r="BI8" s="8"/>
+      <c r="BJ8" s="8"/>
+      <c r="BK8" s="8"/>
+      <c r="BL8" s="8"/>
+      <c r="BM8" s="27">
+        <f>2^8*BIN2DEC(BM7)+BIN2DEC(BV7)</f>
+        <v>95954</v>
+      </c>
+      <c r="BN8" s="28"/>
+      <c r="BO8" s="28"/>
+      <c r="BP8" s="28"/>
+      <c r="BQ8" s="28"/>
+      <c r="BR8" s="28"/>
+      <c r="BS8" s="28"/>
+      <c r="BT8" s="28"/>
+      <c r="BU8" s="28"/>
+      <c r="BV8" s="28"/>
+      <c r="BW8" s="28"/>
+      <c r="BX8" s="28"/>
+      <c r="BY8" s="28"/>
+      <c r="BZ8" s="28"/>
+      <c r="CA8" s="28"/>
+      <c r="CB8" s="28"/>
+      <c r="CC8" s="29"/>
+      <c r="CD8" s="8"/>
+      <c r="CE8" s="8"/>
+      <c r="CF8" s="8"/>
+      <c r="CG8" s="8"/>
+      <c r="CH8" s="8"/>
+      <c r="CI8" s="8"/>
+      <c r="CJ8" s="8"/>
+      <c r="CK8" s="8"/>
+      <c r="CL8" s="8"/>
+      <c r="CM8" s="8"/>
+      <c r="CN8" s="8"/>
+      <c r="CO8" s="8"/>
+      <c r="CP8" s="8"/>
+      <c r="CQ8" s="8"/>
+      <c r="CR8" s="8"/>
+      <c r="CS8" s="8"/>
+      <c r="CT8" s="8"/>
+      <c r="CU8" s="8"/>
+      <c r="CV8" s="8"/>
+      <c r="CW8" s="8"/>
+      <c r="CX8" s="8"/>
+      <c r="CY8" s="8"/>
+      <c r="CZ8" s="8"/>
+      <c r="DA8" s="8"/>
+      <c r="DB8" s="8"/>
+      <c r="DC8" s="8"/>
+      <c r="DD8" s="8"/>
+      <c r="DE8" s="8"/>
+      <c r="DF8" s="8"/>
+      <c r="DG8" s="8"/>
+      <c r="DH8" s="8"/>
+      <c r="DI8" s="8"/>
+      <c r="DJ8" s="8"/>
+      <c r="DK8" s="8"/>
+      <c r="DL8" s="8"/>
+      <c r="DM8" s="8"/>
+      <c r="DN8" s="8"/>
+      <c r="DO8" s="8"/>
+      <c r="DP8" s="8"/>
+      <c r="DQ8" s="8"/>
+      <c r="DR8" s="8"/>
     </row>
     <row r="9" spans="2:138" x14ac:dyDescent="0.35">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="28">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="18">
         <f>BIN2DEC(K7)</f>
         <v>17</v>
       </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28">
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18">
         <f>BIN2DEC(P7)</f>
         <v>5</v>
       </c>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28">
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18">
         <f>BIN2DEC(S7)</f>
-        <v>17</v>
-      </c>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28">
+        <v>41</v>
+      </c>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18">
         <f>BIN2DEC(Y7)</f>
-        <v>49</v>
-      </c>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="28">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18">
         <f t="shared" ref="AE9" si="3">BIN2DEC(AE7)</f>
-        <v>54</v>
-      </c>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="28"/>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="28"/>
-      <c r="AK9" s="28">
+        <v>31</v>
+      </c>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="18"/>
+      <c r="AK9" s="18">
         <f t="shared" ref="AK9" si="4">BIN2DEC(AK7)</f>
-        <v>62</v>
-      </c>
-      <c r="AL9" s="28"/>
-      <c r="AM9" s="28"/>
-      <c r="AN9" s="28"/>
-      <c r="AO9" s="28"/>
-      <c r="AP9" s="28"/>
-      <c r="AQ9" s="28">
+        <v>43</v>
+      </c>
+      <c r="AL9" s="18"/>
+      <c r="AM9" s="18"/>
+      <c r="AN9" s="18"/>
+      <c r="AO9" s="18"/>
+      <c r="AP9" s="18"/>
+      <c r="AQ9" s="18">
         <f>BIN2DEC(AQ7)</f>
         <v>11</v>
       </c>
-      <c r="AR9" s="28"/>
-      <c r="AS9" s="28"/>
-      <c r="AT9" s="28"/>
-      <c r="AU9" s="28"/>
-      <c r="AV9" s="23"/>
-      <c r="AW9" s="23"/>
-      <c r="AX9" s="23"/>
-      <c r="AY9" s="24"/>
-      <c r="AZ9" s="24"/>
-      <c r="BA9" s="24"/>
-      <c r="BB9" s="24"/>
-      <c r="BC9" s="24"/>
-      <c r="BD9" s="24"/>
-      <c r="BE9" s="24"/>
-      <c r="BF9" s="24"/>
-      <c r="BG9" s="24"/>
-      <c r="BH9" s="24"/>
-      <c r="BI9" s="24"/>
-      <c r="BJ9" s="24"/>
-      <c r="BK9" s="24"/>
-      <c r="BL9" s="24"/>
-      <c r="BM9" s="24"/>
-      <c r="BN9" s="24"/>
-      <c r="BO9" s="24"/>
-      <c r="BP9" s="24"/>
-      <c r="BQ9" s="24"/>
-      <c r="BR9" s="24"/>
-      <c r="BS9" s="24"/>
-      <c r="BT9" s="24"/>
-      <c r="BU9" s="24"/>
-      <c r="BV9" s="24"/>
-      <c r="BW9" s="24"/>
-      <c r="BX9" s="24"/>
-      <c r="BY9" s="24"/>
-      <c r="BZ9" s="24"/>
-      <c r="CA9" s="24"/>
-      <c r="CB9" s="24"/>
-      <c r="CC9" s="24"/>
-      <c r="CD9" s="24"/>
-      <c r="CE9" s="24"/>
-      <c r="CF9" s="24"/>
-      <c r="CG9" s="24"/>
-      <c r="CH9" s="24"/>
-      <c r="CI9" s="24"/>
-      <c r="CJ9" s="24"/>
-      <c r="CK9" s="24"/>
-      <c r="CL9" s="24"/>
-      <c r="CM9" s="24"/>
-      <c r="CN9" s="24"/>
-      <c r="CO9" s="24"/>
-      <c r="CP9" s="24"/>
-      <c r="CQ9" s="24"/>
-      <c r="CR9" s="24"/>
-      <c r="CS9" s="24"/>
-      <c r="CT9" s="24"/>
-      <c r="CU9" s="24"/>
-      <c r="CV9" s="24"/>
-      <c r="CW9" s="24"/>
-      <c r="CX9" s="24"/>
-      <c r="CY9" s="24"/>
-      <c r="CZ9" s="24"/>
-      <c r="DA9" s="24"/>
-      <c r="DB9" s="24"/>
-      <c r="DC9" s="24"/>
-      <c r="DD9" s="24"/>
-      <c r="DE9" s="24"/>
-      <c r="DF9" s="24"/>
-      <c r="DG9" s="24"/>
-      <c r="DH9" s="24"/>
-      <c r="DI9" s="24"/>
-      <c r="DJ9" s="24"/>
-      <c r="DK9" s="24"/>
-      <c r="DL9" s="24"/>
-      <c r="DM9" s="24"/>
-      <c r="DN9" s="24"/>
-      <c r="DO9" s="24"/>
-      <c r="DP9" s="24"/>
-      <c r="DQ9" s="24"/>
-      <c r="DR9" s="24"/>
+      <c r="AR9" s="18"/>
+      <c r="AS9" s="18"/>
+      <c r="AT9" s="18"/>
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="8"/>
+      <c r="AW9" s="8"/>
+      <c r="AX9" s="8"/>
+      <c r="AY9" s="8"/>
+      <c r="AZ9" s="8"/>
+      <c r="BA9" s="8"/>
+      <c r="BB9" s="8"/>
+      <c r="BC9" s="8"/>
+      <c r="BD9" s="8"/>
+      <c r="BE9" s="8"/>
+      <c r="BF9" s="8"/>
+      <c r="BG9" s="8"/>
+      <c r="BH9" s="8"/>
+      <c r="BI9" s="8"/>
+      <c r="BJ9" s="8"/>
+      <c r="BK9" s="8"/>
+      <c r="BL9" s="8"/>
+      <c r="BM9" s="27"/>
+      <c r="BN9" s="28"/>
+      <c r="BO9" s="28"/>
+      <c r="BP9" s="28"/>
+      <c r="BQ9" s="28"/>
+      <c r="BR9" s="28"/>
+      <c r="BS9" s="28"/>
+      <c r="BT9" s="28"/>
+      <c r="BU9" s="28"/>
+      <c r="BV9" s="28"/>
+      <c r="BW9" s="28"/>
+      <c r="BX9" s="28"/>
+      <c r="BY9" s="28"/>
+      <c r="BZ9" s="28"/>
+      <c r="CA9" s="28"/>
+      <c r="CB9" s="28"/>
+      <c r="CC9" s="29"/>
+      <c r="CD9" s="8"/>
+      <c r="CE9" s="8"/>
+      <c r="CF9" s="8"/>
+      <c r="CG9" s="8"/>
+      <c r="CH9" s="8"/>
+      <c r="CI9" s="8"/>
+      <c r="CJ9" s="8"/>
+      <c r="CK9" s="8"/>
+      <c r="CL9" s="8"/>
+      <c r="CM9" s="8"/>
+      <c r="CN9" s="8"/>
+      <c r="CO9" s="8"/>
+      <c r="CP9" s="8"/>
+      <c r="CQ9" s="8"/>
+      <c r="CR9" s="8"/>
+      <c r="CS9" s="8"/>
+      <c r="CT9" s="8"/>
+      <c r="CU9" s="8"/>
+      <c r="CV9" s="8"/>
+      <c r="CW9" s="8"/>
+      <c r="CX9" s="8"/>
+      <c r="CY9" s="8"/>
+      <c r="CZ9" s="8"/>
+      <c r="DA9" s="8"/>
+      <c r="DB9" s="8"/>
+      <c r="DC9" s="8"/>
+      <c r="DD9" s="8"/>
+      <c r="DE9" s="8"/>
+      <c r="DF9" s="8"/>
+      <c r="DG9" s="8"/>
+      <c r="DH9" s="8"/>
+      <c r="DI9" s="8"/>
+      <c r="DJ9" s="8"/>
+      <c r="DK9" s="8"/>
+      <c r="DL9" s="8"/>
+      <c r="DM9" s="8"/>
+      <c r="DN9" s="8"/>
+      <c r="DO9" s="8"/>
+      <c r="DP9" s="8"/>
+      <c r="DQ9" s="8"/>
+      <c r="DR9" s="8"/>
     </row>
     <row r="10" spans="2:138" x14ac:dyDescent="0.35">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28" t="str">
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18" t="str">
         <f>_xlfn.XLOOKUP(S9,LOOKUP!$B$4:$B$67,LOOKUP!$C$4:$C$67)</f>
-        <v>Q</v>
-      </c>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28">
+        <v>#</v>
+      </c>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18" t="str">
         <f>_xlfn.XLOOKUP(Y9,LOOKUP!$B$4:$B$67,LOOKUP!$C$4:$C$67)</f>
-        <v>1</v>
-      </c>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="28">
+        <v>B</v>
+      </c>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18" t="str">
         <f>_xlfn.XLOOKUP(AE9,LOOKUP!$B$4:$B$67,LOOKUP!$C$4:$C$67)</f>
-        <v>6</v>
-      </c>
-      <c r="AF10" s="28"/>
-      <c r="AG10" s="28"/>
-      <c r="AH10" s="28"/>
-      <c r="AI10" s="28"/>
-      <c r="AJ10" s="28"/>
-      <c r="AK10" s="28" t="str">
+        <v>#</v>
+      </c>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="18"/>
+      <c r="AK10" s="18" t="str">
         <f>_xlfn.XLOOKUP(AK9,LOOKUP!$B$4:$B$67,LOOKUP!$C$4:$C$67)</f>
         <v>#</v>
       </c>
-      <c r="AL10" s="28"/>
-      <c r="AM10" s="28"/>
-      <c r="AN10" s="28"/>
-      <c r="AO10" s="28"/>
-      <c r="AP10" s="28"/>
-      <c r="AQ10" s="28" t="str">
+      <c r="AL10" s="18"/>
+      <c r="AM10" s="18"/>
+      <c r="AN10" s="18"/>
+      <c r="AO10" s="18"/>
+      <c r="AP10" s="18"/>
+      <c r="AQ10" s="18" t="str">
         <f>_xlfn.XLOOKUP(AQ9,LOOKUP!$B$4:$B$67,LOOKUP!$C$4:$C$67)</f>
         <v>K</v>
       </c>
-      <c r="AR10" s="28"/>
-      <c r="AS10" s="28"/>
-      <c r="AT10" s="28"/>
-      <c r="AU10" s="28"/>
-      <c r="AV10" s="23"/>
-      <c r="AW10" s="23"/>
-      <c r="AX10" s="23"/>
-      <c r="AY10" s="24"/>
-      <c r="AZ10" s="24"/>
-      <c r="BA10" s="24"/>
-      <c r="BB10" s="24"/>
-      <c r="BC10" s="24"/>
-      <c r="BD10" s="24"/>
-      <c r="BE10" s="24"/>
-      <c r="BF10" s="24"/>
-      <c r="BG10" s="24"/>
-      <c r="BH10" s="24"/>
-      <c r="BI10" s="24"/>
-      <c r="BJ10" s="24"/>
-      <c r="BK10" s="24"/>
-      <c r="BL10" s="24"/>
-      <c r="BM10" s="24"/>
-      <c r="BN10" s="24"/>
-      <c r="BO10" s="24"/>
-      <c r="BP10" s="24"/>
-      <c r="BQ10" s="24"/>
-      <c r="BR10" s="24"/>
-      <c r="BS10" s="24"/>
-      <c r="BT10" s="24"/>
-      <c r="BU10" s="24"/>
-      <c r="BV10" s="24"/>
-      <c r="BW10" s="24"/>
-      <c r="BX10" s="24"/>
-      <c r="BY10" s="24"/>
-      <c r="BZ10" s="24"/>
-      <c r="CA10" s="24"/>
-      <c r="CB10" s="24"/>
-      <c r="CC10" s="24"/>
-      <c r="CD10" s="24"/>
-      <c r="CE10" s="24"/>
-      <c r="CF10" s="24"/>
-      <c r="CG10" s="24"/>
-      <c r="CH10" s="24"/>
-      <c r="CI10" s="24"/>
-      <c r="CJ10" s="24"/>
-      <c r="CK10" s="24"/>
-      <c r="CL10" s="24"/>
-      <c r="CM10" s="24"/>
-      <c r="CN10" s="24"/>
-      <c r="CO10" s="24"/>
-      <c r="CP10" s="24"/>
-      <c r="CQ10" s="24"/>
-      <c r="CR10" s="24"/>
-      <c r="CS10" s="24"/>
-      <c r="CT10" s="24"/>
-      <c r="CU10" s="24"/>
-      <c r="CV10" s="24"/>
-      <c r="CW10" s="24"/>
-      <c r="CX10" s="24"/>
-      <c r="CY10" s="24"/>
-      <c r="CZ10" s="24"/>
-      <c r="DA10" s="24"/>
-      <c r="DB10" s="24"/>
-      <c r="DC10" s="24"/>
-      <c r="DD10" s="24"/>
-      <c r="DE10" s="24"/>
-      <c r="DF10" s="24"/>
-      <c r="DG10" s="24"/>
-      <c r="DH10" s="24"/>
-      <c r="DI10" s="24"/>
-      <c r="DJ10" s="24"/>
-      <c r="DK10" s="24"/>
-      <c r="DL10" s="24"/>
-      <c r="DM10" s="24"/>
-      <c r="DN10" s="24"/>
-      <c r="DO10" s="24"/>
-      <c r="DP10" s="24"/>
-      <c r="DQ10" s="24"/>
-      <c r="DR10" s="24"/>
+      <c r="AR10" s="18"/>
+      <c r="AS10" s="18"/>
+      <c r="AT10" s="18"/>
+      <c r="AU10" s="18"/>
+      <c r="AV10" s="8"/>
+      <c r="AW10" s="8"/>
+      <c r="AX10" s="8"/>
+      <c r="AY10" s="8"/>
+      <c r="AZ10" s="8"/>
+      <c r="BA10" s="8"/>
+      <c r="BB10" s="8"/>
+      <c r="BC10" s="8"/>
+      <c r="BD10" s="8"/>
+      <c r="BE10" s="8"/>
+      <c r="BF10" s="8"/>
+      <c r="BG10" s="8"/>
+      <c r="BH10" s="8"/>
+      <c r="BI10" s="8"/>
+      <c r="BJ10" s="8"/>
+      <c r="BK10" s="8"/>
+      <c r="BL10" s="8"/>
+      <c r="BM10" s="8"/>
+      <c r="BN10" s="8"/>
+      <c r="BO10" s="8"/>
+      <c r="BP10" s="8"/>
+      <c r="BQ10" s="8"/>
+      <c r="BR10" s="8"/>
+      <c r="BS10" s="8"/>
+      <c r="BT10" s="8"/>
+      <c r="BU10" s="8"/>
+      <c r="BV10" s="8"/>
+      <c r="BW10" s="8"/>
+      <c r="BX10" s="8"/>
+      <c r="BY10" s="8"/>
+      <c r="BZ10" s="8"/>
+      <c r="CA10" s="8"/>
+      <c r="CB10" s="8"/>
+      <c r="CC10" s="8"/>
+      <c r="CD10" s="8"/>
+      <c r="CE10" s="8"/>
+      <c r="CF10" s="8"/>
+      <c r="CG10" s="8"/>
+      <c r="CH10" s="8"/>
+      <c r="CI10" s="8"/>
+      <c r="CJ10" s="8"/>
+      <c r="CK10" s="8"/>
+      <c r="CL10" s="8"/>
+      <c r="CM10" s="8"/>
+      <c r="CN10" s="8"/>
+      <c r="CO10" s="8"/>
+      <c r="CP10" s="8"/>
+      <c r="CQ10" s="8"/>
+      <c r="CR10" s="8"/>
+      <c r="CS10" s="8"/>
+      <c r="CT10" s="8"/>
+      <c r="CU10" s="8"/>
+      <c r="CV10" s="8"/>
+      <c r="CW10" s="8"/>
+      <c r="CX10" s="8"/>
+      <c r="CY10" s="8"/>
+      <c r="CZ10" s="8"/>
+      <c r="DA10" s="8"/>
+      <c r="DB10" s="8"/>
+      <c r="DC10" s="8"/>
+      <c r="DD10" s="8"/>
+      <c r="DE10" s="8"/>
+      <c r="DF10" s="8"/>
+      <c r="DG10" s="8"/>
+      <c r="DH10" s="8"/>
+      <c r="DI10" s="8"/>
+      <c r="DJ10" s="8"/>
+      <c r="DK10" s="8"/>
+      <c r="DL10" s="8"/>
+      <c r="DM10" s="8"/>
+      <c r="DN10" s="8"/>
+      <c r="DO10" s="8"/>
+      <c r="DP10" s="8"/>
+      <c r="DQ10" s="8"/>
+      <c r="DR10" s="8"/>
     </row>
     <row r="11" spans="2:138" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
@@ -7661,9 +7739,13 @@
       <c r="BM12" s="1"/>
       <c r="BN12" s="1"/>
       <c r="BO12" s="1"/>
-      <c r="BP12" s="1"/>
+      <c r="BP12" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="BQ12" s="1"/>
-      <c r="BR12" s="1"/>
+      <c r="BR12" s="1">
+        <v>46.071389000000003</v>
+      </c>
       <c r="BS12" s="1"/>
       <c r="BT12" s="1"/>
       <c r="BU12" s="1"/>
@@ -7722,8 +7804,126 @@
         <v>14</v>
       </c>
     </row>
+    <row r="14" spans="2:138" x14ac:dyDescent="0.35">
+      <c r="BP14" t="s">
+        <v>49</v>
+      </c>
+      <c r="BR14">
+        <f>360/(4*15-BL5)</f>
+        <v>6</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:138" x14ac:dyDescent="0.35">
+      <c r="BP15" t="s">
+        <v>50</v>
+      </c>
+      <c r="BR15" s="30">
+        <f>BM8/2^17</f>
+        <v>0.7320709228515625</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="2:138" x14ac:dyDescent="0.35">
+      <c r="BP16" t="s">
+        <v>51</v>
+      </c>
+      <c r="BR16">
+        <f>ROUNDDOWN(BR12/BR14,0)</f>
+        <v>7</v>
+      </c>
+      <c r="BS16" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>54</v>
+      </c>
+      <c r="BU16" s="33">
+        <f>MOD(BR12,BR14)/BR14</f>
+        <v>0.67856483333333395</v>
+      </c>
+      <c r="BV16" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="BW16" s="30">
+        <f>BR15+0.5</f>
+        <v>1.2320709228515625</v>
+      </c>
+      <c r="BX16" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="BY16" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="BZ16" s="32">
+        <f>BR16+ROUNDDOWN(BU16-BW16,0)</f>
+        <v>7</v>
+      </c>
+      <c r="CA16" s="32"/>
+      <c r="CB16" s="32"/>
+      <c r="CE16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="68:83" x14ac:dyDescent="0.35">
+      <c r="CE17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="68:83" x14ac:dyDescent="0.35">
+      <c r="BP18" t="s">
+        <v>58</v>
+      </c>
+      <c r="BR18">
+        <f>BR14*(BZ16+BR15)</f>
+        <v>46.392425537109375</v>
+      </c>
+      <c r="CE18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="68:83" x14ac:dyDescent="0.35">
+      <c r="BR19">
+        <f>BR14*(BZ16+BR15)</f>
+        <v>46.392425537109375</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="46">
+    <mergeCell ref="BM9:CC9"/>
+    <mergeCell ref="BM7:BU7"/>
+    <mergeCell ref="BV7:CC7"/>
+    <mergeCell ref="BM8:CC8"/>
+    <mergeCell ref="BZ16:CB16"/>
+    <mergeCell ref="AZ7:BJ7"/>
+    <mergeCell ref="CD7:CT7"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:AP6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:X7"/>
+    <mergeCell ref="Y7:AD7"/>
+    <mergeCell ref="AE7:AJ7"/>
+    <mergeCell ref="AK7:AP7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:X8"/>
+    <mergeCell ref="Y8:AD8"/>
+    <mergeCell ref="AK10:AP10"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:X9"/>
+    <mergeCell ref="Y9:AD9"/>
+    <mergeCell ref="AE9:AJ9"/>
     <mergeCell ref="AQ10:AU10"/>
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="C4:AP4"/>
@@ -7740,29 +7940,6 @@
     <mergeCell ref="S10:X10"/>
     <mergeCell ref="Y10:AD10"/>
     <mergeCell ref="AE10:AJ10"/>
-    <mergeCell ref="AK10:AP10"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:X9"/>
-    <mergeCell ref="Y9:AD9"/>
-    <mergeCell ref="AE9:AJ9"/>
-    <mergeCell ref="AE7:AJ7"/>
-    <mergeCell ref="AK7:AP7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:X8"/>
-    <mergeCell ref="Y8:AD8"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:AP6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:X7"/>
-    <mergeCell ref="Y7:AD7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
